--- a/New-Implementation/Data/sens-data/smaller-full/cw1-cc5-cv10-gam99-smaller-full-data.xlsx
+++ b/New-Implementation/Data/sens-data/smaller-full/cw1-cc5-cv10-gam99-smaller-full-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projects\UOttawa-Dynamic-Knapsack-Problem-Python\New-Implementation\Data\sens-data\smaller-full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16E23FE-FD2E-4157-A857-F9A41874337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F754C671-3E92-4F94-B70B-BFC4738DF506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="2160" windowWidth="28800" windowHeight="15435" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="Model Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Expected State Values" sheetId="7" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -481,92 +478,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Indices Data"/>
-      <sheetName val="PPE Data"/>
-      <sheetName val="PPE Usage"/>
-      <sheetName val="Patient Arrival"/>
-      <sheetName val="Patient Transitions"/>
-      <sheetName val="Model Parameters"/>
-      <sheetName val="Expected State Values"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="D2">
-            <v>1.0374639769452449</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>0.25936599423631124</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0.51873198847262247</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>0.12968299711815562</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>8.6455331412103709E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>6.4841498559077809E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>6.4841498559077809E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>4.322766570605191E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>1.0374639769452449</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>0.25936599423631124</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>0.51873198847262247</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>0.12968299711815562</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1391,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,6 +1335,9 @@
       <c r="D1" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1436,6 +1350,10 @@
         <v>8</v>
       </c>
       <c r="D2">
+        <f>I2*$I$1</f>
+        <v>1.0374639769452449</v>
+      </c>
+      <c r="I2">
         <v>1.0374639769452449</v>
       </c>
       <c r="J2" s="2"/>
@@ -1454,6 +1372,10 @@
         <v>12</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">I3*$I$1</f>
+        <v>0.25936599423631124</v>
+      </c>
+      <c r="I3">
         <v>0.25936599423631124</v>
       </c>
       <c r="J3" s="2"/>
@@ -1472,6 +1394,10 @@
         <v>8</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.51873198847262247</v>
+      </c>
+      <c r="I4">
         <v>0.51873198847262247</v>
       </c>
     </row>
@@ -1486,6 +1412,10 @@
         <v>12</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.12968299711815562</v>
+      </c>
+      <c r="I5">
         <v>0.12968299711815562</v>
       </c>
     </row>
@@ -1500,6 +1430,10 @@
         <v>8</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>8.6455331412103709E-2</v>
+      </c>
+      <c r="I6">
         <v>8.6455331412103709E-2</v>
       </c>
     </row>
@@ -1514,6 +1448,10 @@
         <v>12</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>6.4841498559077809E-2</v>
+      </c>
+      <c r="I7">
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -1528,6 +1466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>6.4841498559077809E-2</v>
+      </c>
+      <c r="I8">
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -1542,6 +1484,10 @@
         <v>12</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4.322766570605191E-2</v>
+      </c>
+      <c r="I9">
         <v>4.322766570605191E-2</v>
       </c>
     </row>
@@ -1556,6 +1502,10 @@
         <v>8</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.0374639769452449</v>
+      </c>
+      <c r="I10">
         <v>1.0374639769452449</v>
       </c>
     </row>
@@ -1570,6 +1520,10 @@
         <v>12</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.25936599423631124</v>
+      </c>
+      <c r="I11">
         <v>0.25936599423631124</v>
       </c>
     </row>
@@ -1584,6 +1538,10 @@
         <v>8</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.51873198847262247</v>
+      </c>
+      <c r="I12">
         <v>0.51873198847262247</v>
       </c>
     </row>
@@ -1598,6 +1556,10 @@
         <v>12</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.12968299711815562</v>
+      </c>
+      <c r="I13">
         <v>0.12968299711815562</v>
       </c>
     </row>
@@ -2368,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M4202"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,7 +2513,6 @@
         <v>9</v>
       </c>
       <c r="G3" s="17">
-        <f>'[1]Patient Arrival'!D2</f>
         <v>1.0374639769452449</v>
       </c>
       <c r="H3" s="15">
@@ -2570,7 +2531,6 @@
         <v>9</v>
       </c>
       <c r="M3" s="16">
-        <f>G3*0.5</f>
         <v>0.51873198847262247</v>
       </c>
     </row>
@@ -2594,7 +2554,6 @@
         <v>9</v>
       </c>
       <c r="G4" s="17">
-        <f>'[1]Patient Arrival'!D3</f>
         <v>0.25936599423631124</v>
       </c>
       <c r="H4" s="15">
@@ -2613,7 +2572,6 @@
         <v>9</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" ref="M4:M14" si="0">G4*0.5</f>
         <v>0.12968299711815562</v>
       </c>
     </row>
@@ -2633,7 +2591,6 @@
         <v>9</v>
       </c>
       <c r="G5" s="17">
-        <f>'[1]Patient Arrival'!D4</f>
         <v>0.51873198847262247</v>
       </c>
       <c r="H5" s="15">
@@ -2652,7 +2609,6 @@
         <v>9</v>
       </c>
       <c r="M5" s="16">
-        <f t="shared" si="0"/>
         <v>0.25936599423631124</v>
       </c>
     </row>
@@ -2672,7 +2628,6 @@
         <v>9</v>
       </c>
       <c r="G6" s="17">
-        <f>'[1]Patient Arrival'!D5</f>
         <v>0.12968299711815562</v>
       </c>
       <c r="H6" s="15">
@@ -2691,7 +2646,6 @@
         <v>9</v>
       </c>
       <c r="M6" s="16">
-        <f t="shared" si="0"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -2711,7 +2665,6 @@
         <v>15</v>
       </c>
       <c r="G7" s="17">
-        <f>'[1]Patient Arrival'!D6</f>
         <v>8.6455331412103709E-2</v>
       </c>
       <c r="H7" s="15">
@@ -2730,7 +2683,6 @@
         <v>15</v>
       </c>
       <c r="M7" s="16">
-        <f t="shared" si="0"/>
         <v>4.3227665706051854E-2</v>
       </c>
     </row>
@@ -2749,7 +2701,6 @@
         <v>15</v>
       </c>
       <c r="G8" s="17">
-        <f>'[1]Patient Arrival'!D7</f>
         <v>6.4841498559077809E-2</v>
       </c>
       <c r="H8" s="15">
@@ -2768,7 +2719,6 @@
         <v>15</v>
       </c>
       <c r="M8" s="16">
-        <f t="shared" si="0"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -2787,7 +2737,6 @@
         <v>15</v>
       </c>
       <c r="G9" s="17">
-        <f>'[1]Patient Arrival'!D8</f>
         <v>6.4841498559077809E-2</v>
       </c>
       <c r="H9" s="15">
@@ -2806,7 +2755,6 @@
         <v>15</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="0"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -2825,7 +2773,6 @@
         <v>15</v>
       </c>
       <c r="G10" s="17">
-        <f>'[1]Patient Arrival'!D9</f>
         <v>4.322766570605191E-2</v>
       </c>
       <c r="H10" s="15">
@@ -2844,7 +2791,6 @@
         <v>15</v>
       </c>
       <c r="M10" s="16">
-        <f t="shared" si="0"/>
         <v>2.1613832853025955E-2</v>
       </c>
     </row>
@@ -2863,7 +2809,6 @@
         <v>17</v>
       </c>
       <c r="G11" s="17">
-        <f>'[1]Patient Arrival'!D10</f>
         <v>1.0374639769452449</v>
       </c>
       <c r="H11" s="15">
@@ -2882,7 +2827,6 @@
         <v>17</v>
       </c>
       <c r="M11" s="16">
-        <f t="shared" si="0"/>
         <v>0.51873198847262247</v>
       </c>
     </row>
@@ -2901,7 +2845,6 @@
         <v>17</v>
       </c>
       <c r="G12" s="17">
-        <f>'[1]Patient Arrival'!D11</f>
         <v>0.25936599423631124</v>
       </c>
       <c r="H12" s="15">
@@ -2920,7 +2863,6 @@
         <v>17</v>
       </c>
       <c r="M12" s="16">
-        <f t="shared" si="0"/>
         <v>0.12968299711815562</v>
       </c>
     </row>
@@ -2939,7 +2881,6 @@
         <v>17</v>
       </c>
       <c r="G13" s="17">
-        <f>'[1]Patient Arrival'!D12</f>
         <v>0.51873198847262247</v>
       </c>
       <c r="H13" s="15">
@@ -2958,7 +2899,6 @@
         <v>17</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" si="0"/>
         <v>0.25936599423631124</v>
       </c>
     </row>
@@ -2978,7 +2918,6 @@
         <v>17</v>
       </c>
       <c r="G14" s="17">
-        <f>'[1]Patient Arrival'!D13</f>
         <v>0.12968299711815562</v>
       </c>
       <c r="H14" s="15">
@@ -2997,7 +2936,6 @@
         <v>17</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="0"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -3017,7 +2955,6 @@
         <v>9</v>
       </c>
       <c r="G15" s="17">
-        <f>G3*0.5</f>
         <v>0.51873198847262247</v>
       </c>
       <c r="H15" s="15">
@@ -3036,14 +2973,13 @@
         <v>9</v>
       </c>
       <c r="M15" s="16">
-        <f>M3*0.5</f>
         <v>0.25936599423631124</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="C16" s="17">
-        <f t="shared" ref="C16:C62" si="1">C4+1</f>
+        <f t="shared" ref="C16:C62" si="0">C4+1</f>
         <v>1</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -3056,7 +2992,6 @@
         <v>9</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G62" si="2">G4*0.5</f>
         <v>0.12968299711815562</v>
       </c>
       <c r="H16" s="15">
@@ -3075,14 +3010,13 @@
         <v>9</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" ref="M16:M62" si="3">M4*0.5</f>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="C17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3095,7 +3029,6 @@
         <v>9</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="2"/>
         <v>0.25936599423631124</v>
       </c>
       <c r="H17" s="15">
@@ -3114,14 +3047,13 @@
         <v>9</v>
       </c>
       <c r="M17" s="16">
-        <f t="shared" si="3"/>
         <v>0.12968299711815562</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="C18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -3134,7 +3066,6 @@
         <v>9</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" si="2"/>
         <v>6.4841498559077809E-2</v>
       </c>
       <c r="H18" s="15">
@@ -3153,14 +3084,13 @@
         <v>9</v>
       </c>
       <c r="M18" s="16">
-        <f t="shared" si="3"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="C19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
@@ -3173,7 +3103,6 @@
         <v>15</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="2"/>
         <v>4.3227665706051854E-2</v>
       </c>
       <c r="H19" s="15">
@@ -3192,14 +3121,13 @@
         <v>15</v>
       </c>
       <c r="M19" s="16">
-        <f t="shared" si="3"/>
         <v>2.1613832853025927E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="C20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -3212,7 +3140,6 @@
         <v>15</v>
       </c>
       <c r="G20" s="17">
-        <f t="shared" si="2"/>
         <v>3.2420749279538905E-2</v>
       </c>
       <c r="H20" s="15">
@@ -3231,14 +3158,13 @@
         <v>15</v>
       </c>
       <c r="M20" s="16">
-        <f t="shared" si="3"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="C21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -3251,7 +3177,6 @@
         <v>15</v>
       </c>
       <c r="G21" s="17">
-        <f t="shared" si="2"/>
         <v>3.2420749279538905E-2</v>
       </c>
       <c r="H21" s="15">
@@ -3270,14 +3195,13 @@
         <v>15</v>
       </c>
       <c r="M21" s="16">
-        <f t="shared" si="3"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="C22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -3290,7 +3214,6 @@
         <v>15</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="2"/>
         <v>2.1613832853025955E-2</v>
       </c>
       <c r="H22" s="15">
@@ -3309,13 +3232,12 @@
         <v>15</v>
       </c>
       <c r="M22" s="16">
-        <f t="shared" si="3"/>
         <v>1.0806916426512977E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -3328,7 +3250,6 @@
         <v>17</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="2"/>
         <v>0.51873198847262247</v>
       </c>
       <c r="H23" s="15">
@@ -3347,13 +3268,12 @@
         <v>17</v>
       </c>
       <c r="M23" s="16">
-        <f t="shared" si="3"/>
         <v>0.25936599423631124</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3366,7 +3286,6 @@
         <v>17</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="2"/>
         <v>0.12968299711815562</v>
       </c>
       <c r="H24" s="15">
@@ -3385,13 +3304,12 @@
         <v>17</v>
       </c>
       <c r="M24" s="16">
-        <f t="shared" si="3"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -3404,7 +3322,6 @@
         <v>17</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="2"/>
         <v>0.25936599423631124</v>
       </c>
       <c r="H25" s="15">
@@ -3423,13 +3340,12 @@
         <v>17</v>
       </c>
       <c r="M25" s="16">
-        <f t="shared" si="3"/>
         <v>0.12968299711815562</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -3442,7 +3358,6 @@
         <v>17</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="2"/>
         <v>6.4841498559077809E-2</v>
       </c>
       <c r="H26" s="15">
@@ -3461,7 +3376,6 @@
         <v>17</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" si="3"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -3480,7 +3394,6 @@
         <v>9</v>
       </c>
       <c r="G27" s="17">
-        <f>G15*0.5</f>
         <v>0.25936599423631124</v>
       </c>
       <c r="H27" s="15">
@@ -3499,13 +3412,12 @@
         <v>9</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" si="3"/>
         <v>0.12968299711815562</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -3518,7 +3430,6 @@
         <v>9</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="2"/>
         <v>6.4841498559077809E-2</v>
       </c>
       <c r="H28" s="15">
@@ -3537,13 +3448,12 @@
         <v>9</v>
       </c>
       <c r="M28" s="16">
-        <f t="shared" si="3"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -3556,7 +3466,6 @@
         <v>9</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="2"/>
         <v>0.12968299711815562</v>
       </c>
       <c r="H29" s="15">
@@ -3575,13 +3484,12 @@
         <v>9</v>
       </c>
       <c r="M29" s="16">
-        <f t="shared" si="3"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -3594,7 +3502,6 @@
         <v>9</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="2"/>
         <v>3.2420749279538905E-2</v>
       </c>
       <c r="H30" s="15">
@@ -3613,13 +3520,12 @@
         <v>9</v>
       </c>
       <c r="M30" s="16">
-        <f t="shared" si="3"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D31" s="17" t="s">
@@ -3632,7 +3538,6 @@
         <v>15</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="2"/>
         <v>2.1613832853025927E-2</v>
       </c>
       <c r="H31" s="15">
@@ -3651,13 +3556,12 @@
         <v>15</v>
       </c>
       <c r="M31" s="16">
-        <f t="shared" si="3"/>
         <v>1.0806916426512964E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C32" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -3670,7 +3574,6 @@
         <v>15</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="2"/>
         <v>1.6210374639769452E-2</v>
       </c>
       <c r="H32" s="15">
@@ -3689,13 +3592,12 @@
         <v>15</v>
       </c>
       <c r="M32" s="16">
-        <f t="shared" si="3"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -3708,7 +3610,6 @@
         <v>15</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="2"/>
         <v>1.6210374639769452E-2</v>
       </c>
       <c r="H33" s="15">
@@ -3727,13 +3628,12 @@
         <v>15</v>
       </c>
       <c r="M33" s="16">
-        <f t="shared" si="3"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D34" s="17" t="s">
@@ -3746,7 +3646,6 @@
         <v>15</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="2"/>
         <v>1.0806916426512977E-2</v>
       </c>
       <c r="H34" s="15">
@@ -3765,13 +3664,12 @@
         <v>15</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" si="3"/>
         <v>5.4034582132564887E-3</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D35" s="17" t="s">
@@ -3784,7 +3682,6 @@
         <v>17</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="2"/>
         <v>0.25936599423631124</v>
       </c>
       <c r="H35" s="15">
@@ -3803,13 +3700,12 @@
         <v>17</v>
       </c>
       <c r="M35" s="16">
-        <f t="shared" si="3"/>
         <v>0.12968299711815562</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -3822,7 +3718,6 @@
         <v>17</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="2"/>
         <v>6.4841498559077809E-2</v>
       </c>
       <c r="H36" s="15">
@@ -3841,13 +3736,12 @@
         <v>17</v>
       </c>
       <c r="M36" s="16">
-        <f t="shared" si="3"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D37" s="17" t="s">
@@ -3860,7 +3754,6 @@
         <v>17</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="2"/>
         <v>0.12968299711815562</v>
       </c>
       <c r="H37" s="15">
@@ -3879,13 +3772,12 @@
         <v>17</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" si="3"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D38" s="17" t="s">
@@ -3898,7 +3790,6 @@
         <v>17</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="2"/>
         <v>3.2420749279538905E-2</v>
       </c>
       <c r="H38" s="15">
@@ -3917,7 +3808,6 @@
         <v>17</v>
       </c>
       <c r="M38" s="16">
-        <f t="shared" si="3"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -3936,7 +3826,6 @@
         <v>9</v>
       </c>
       <c r="G39" s="17">
-        <f>G27*0.5</f>
         <v>0.12968299711815562</v>
       </c>
       <c r="H39" s="15">
@@ -3955,13 +3844,12 @@
         <v>9</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" si="3"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D40" s="17" t="s">
@@ -3974,7 +3862,6 @@
         <v>9</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="2"/>
         <v>3.2420749279538905E-2</v>
       </c>
       <c r="H40" s="15">
@@ -3993,13 +3880,12 @@
         <v>9</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" si="3"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -4012,7 +3898,6 @@
         <v>9</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="2"/>
         <v>6.4841498559077809E-2</v>
       </c>
       <c r="H41" s="15">
@@ -4031,13 +3916,12 @@
         <v>9</v>
       </c>
       <c r="M41" s="16">
-        <f t="shared" si="3"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D42" s="17" t="s">
@@ -4050,7 +3934,6 @@
         <v>9</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="2"/>
         <v>1.6210374639769452E-2</v>
       </c>
       <c r="H42" s="15">
@@ -4069,13 +3952,12 @@
         <v>9</v>
       </c>
       <c r="M42" s="16">
-        <f t="shared" si="3"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D43" s="17" t="s">
@@ -4088,7 +3970,6 @@
         <v>15</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="2"/>
         <v>1.0806916426512964E-2</v>
       </c>
       <c r="H43" s="15">
@@ -4107,13 +3988,12 @@
         <v>15</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" si="3"/>
         <v>5.4034582132564818E-3</v>
       </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -4126,7 +4006,6 @@
         <v>15</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="2"/>
         <v>8.1051873198847262E-3</v>
       </c>
       <c r="H44" s="15">
@@ -4145,13 +4024,12 @@
         <v>15</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="3"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -4164,7 +4042,6 @@
         <v>15</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="2"/>
         <v>8.1051873198847262E-3</v>
       </c>
       <c r="H45" s="15">
@@ -4183,13 +4060,12 @@
         <v>15</v>
       </c>
       <c r="M45" s="16">
-        <f t="shared" si="3"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D46" s="17" t="s">
@@ -4202,7 +4078,6 @@
         <v>15</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="2"/>
         <v>5.4034582132564887E-3</v>
       </c>
       <c r="H46" s="15">
@@ -4221,13 +4096,12 @@
         <v>15</v>
       </c>
       <c r="M46" s="16">
-        <f t="shared" si="3"/>
         <v>2.7017291066282444E-3</v>
       </c>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C47" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D47" s="17" t="s">
@@ -4240,7 +4114,6 @@
         <v>17</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="2"/>
         <v>0.12968299711815562</v>
       </c>
       <c r="H47" s="15">
@@ -4259,13 +4132,12 @@
         <v>17</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" si="3"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C48" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -4278,7 +4150,6 @@
         <v>17</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="2"/>
         <v>3.2420749279538905E-2</v>
       </c>
       <c r="H48" s="15">
@@ -4297,13 +4168,12 @@
         <v>17</v>
       </c>
       <c r="M48" s="16">
-        <f t="shared" si="3"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
@@ -4316,7 +4186,6 @@
         <v>17</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="2"/>
         <v>6.4841498559077809E-2</v>
       </c>
       <c r="H49" s="15">
@@ -4335,13 +4204,12 @@
         <v>17</v>
       </c>
       <c r="M49" s="16">
-        <f t="shared" si="3"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D50" s="17" t="s">
@@ -4354,7 +4222,6 @@
         <v>17</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="2"/>
         <v>1.6210374639769452E-2</v>
       </c>
       <c r="H50" s="15">
@@ -4373,7 +4240,6 @@
         <v>17</v>
       </c>
       <c r="M50" s="16">
-        <f t="shared" si="3"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -4392,7 +4258,6 @@
         <v>9</v>
       </c>
       <c r="G51" s="17">
-        <f>G39*0.5</f>
         <v>6.4841498559077809E-2</v>
       </c>
       <c r="H51" s="15">
@@ -4411,13 +4276,12 @@
         <v>9</v>
       </c>
       <c r="M51" s="16">
-        <f t="shared" si="3"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -4430,7 +4294,6 @@
         <v>9</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="2"/>
         <v>1.6210374639769452E-2</v>
       </c>
       <c r="H52" s="15">
@@ -4449,13 +4312,12 @@
         <v>9</v>
       </c>
       <c r="M52" s="16">
-        <f t="shared" si="3"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D53" s="17" t="s">
@@ -4468,7 +4330,6 @@
         <v>9</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="2"/>
         <v>3.2420749279538905E-2</v>
       </c>
       <c r="H53" s="15">
@@ -4487,13 +4348,12 @@
         <v>9</v>
       </c>
       <c r="M53" s="16">
-        <f t="shared" si="3"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -4506,7 +4366,6 @@
         <v>9</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="2"/>
         <v>8.1051873198847262E-3</v>
       </c>
       <c r="H54" s="15">
@@ -4525,13 +4384,12 @@
         <v>9</v>
       </c>
       <c r="M54" s="16">
-        <f t="shared" si="3"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C55" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D55" s="17" t="s">
@@ -4544,7 +4402,6 @@
         <v>15</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="2"/>
         <v>5.4034582132564818E-3</v>
       </c>
       <c r="H55" s="15">
@@ -4563,13 +4420,12 @@
         <v>15</v>
       </c>
       <c r="M55" s="16">
-        <f t="shared" si="3"/>
         <v>2.7017291066282409E-3</v>
       </c>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -4582,7 +4438,6 @@
         <v>15</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="2"/>
         <v>4.0525936599423631E-3</v>
       </c>
       <c r="H56" s="15">
@@ -4601,13 +4456,12 @@
         <v>15</v>
       </c>
       <c r="M56" s="16">
-        <f t="shared" si="3"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D57" s="17" t="s">
@@ -4620,7 +4474,6 @@
         <v>15</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="2"/>
         <v>4.0525936599423631E-3</v>
       </c>
       <c r="H57" s="15">
@@ -4639,13 +4492,12 @@
         <v>15</v>
       </c>
       <c r="M57" s="16">
-        <f t="shared" si="3"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C58" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D58" s="17" t="s">
@@ -4658,7 +4510,6 @@
         <v>15</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="2"/>
         <v>2.7017291066282444E-3</v>
       </c>
       <c r="H58" s="15">
@@ -4677,13 +4528,12 @@
         <v>15</v>
       </c>
       <c r="M58" s="16">
-        <f t="shared" si="3"/>
         <v>1.3508645533141222E-3</v>
       </c>
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C59" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -4696,7 +4546,6 @@
         <v>17</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="2"/>
         <v>6.4841498559077809E-2</v>
       </c>
       <c r="H59" s="15">
@@ -4715,13 +4564,12 @@
         <v>17</v>
       </c>
       <c r="M59" s="16">
-        <f t="shared" si="3"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C60" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -4734,7 +4582,6 @@
         <v>17</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="2"/>
         <v>1.6210374639769452E-2</v>
       </c>
       <c r="H60" s="15">
@@ -4753,13 +4600,12 @@
         <v>17</v>
       </c>
       <c r="M60" s="16">
-        <f t="shared" si="3"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D61" s="17" t="s">
@@ -4772,7 +4618,6 @@
         <v>17</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="2"/>
         <v>3.2420749279538905E-2</v>
       </c>
       <c r="H61" s="15">
@@ -4791,13 +4636,12 @@
         <v>17</v>
       </c>
       <c r="M61" s="16">
-        <f t="shared" si="3"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D62" s="17" t="s">
@@ -4810,7 +4654,6 @@
         <v>17</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="2"/>
         <v>8.1051873198847262E-3</v>
       </c>
       <c r="H62" s="15">
@@ -4829,7 +4672,6 @@
         <v>17</v>
       </c>
       <c r="M62" s="16">
-        <f t="shared" si="3"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -4856,7 +4698,6 @@
         <v>9</v>
       </c>
       <c r="M63" s="16">
-        <f>M3*0.5</f>
         <v>0.25936599423631124</v>
       </c>
     </row>
@@ -4867,7 +4708,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="15">
-        <f t="shared" ref="H64:H127" si="4">H4+1</f>
+        <f t="shared" ref="H64:H127" si="1">H4+1</f>
         <v>2</v>
       </c>
       <c r="I64" s="16">
@@ -4883,7 +4724,6 @@
         <v>9</v>
       </c>
       <c r="M64" s="16">
-        <f t="shared" ref="M64:M127" si="5">M4*0.5</f>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -4894,7 +4734,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I65" s="16">
@@ -4910,7 +4750,6 @@
         <v>9</v>
       </c>
       <c r="M65" s="16">
-        <f t="shared" si="5"/>
         <v>0.12968299711815562</v>
       </c>
     </row>
@@ -4921,7 +4760,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I66" s="16">
@@ -4937,7 +4776,6 @@
         <v>9</v>
       </c>
       <c r="M66" s="16">
-        <f t="shared" si="5"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -4948,7 +4786,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I67" s="16">
@@ -4964,7 +4802,6 @@
         <v>15</v>
       </c>
       <c r="M67" s="16">
-        <f t="shared" si="5"/>
         <v>2.1613832853025927E-2</v>
       </c>
     </row>
@@ -4975,7 +4812,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I68" s="16">
@@ -4991,7 +4828,6 @@
         <v>15</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="5"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -5002,7 +4838,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I69" s="16">
@@ -5018,7 +4854,6 @@
         <v>15</v>
       </c>
       <c r="M69" s="16">
-        <f t="shared" si="5"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -5029,7 +4864,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I70" s="16">
@@ -5045,7 +4880,6 @@
         <v>15</v>
       </c>
       <c r="M70" s="16">
-        <f t="shared" si="5"/>
         <v>1.0806916426512977E-2</v>
       </c>
     </row>
@@ -5056,7 +4890,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I71" s="16">
@@ -5072,7 +4906,6 @@
         <v>17</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" si="5"/>
         <v>0.25936599423631124</v>
       </c>
     </row>
@@ -5083,7 +4916,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I72" s="16">
@@ -5099,7 +4932,6 @@
         <v>17</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="5"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -5110,7 +4942,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I73" s="16">
@@ -5126,7 +4958,6 @@
         <v>17</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="5"/>
         <v>0.12968299711815562</v>
       </c>
     </row>
@@ -5137,7 +4968,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I74" s="16">
@@ -5153,7 +4984,6 @@
         <v>17</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="5"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -5164,7 +4994,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
       <c r="H75" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I75" s="16">
@@ -5180,7 +5010,6 @@
         <v>9</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="5"/>
         <v>0.12968299711815562</v>
       </c>
     </row>
@@ -5191,7 +5020,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
       <c r="H76" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I76" s="16">
@@ -5207,7 +5036,6 @@
         <v>9</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" si="5"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -5218,7 +5046,7 @@
       <c r="F77" s="17"/>
       <c r="G77" s="17"/>
       <c r="H77" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I77" s="16">
@@ -5234,7 +5062,6 @@
         <v>9</v>
       </c>
       <c r="M77" s="16">
-        <f t="shared" si="5"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -5245,7 +5072,7 @@
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
       <c r="H78" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I78" s="16">
@@ -5261,7 +5088,6 @@
         <v>9</v>
       </c>
       <c r="M78" s="16">
-        <f t="shared" si="5"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -5272,7 +5098,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
       <c r="H79" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I79" s="16">
@@ -5288,7 +5114,6 @@
         <v>15</v>
       </c>
       <c r="M79" s="16">
-        <f t="shared" si="5"/>
         <v>1.0806916426512964E-2</v>
       </c>
     </row>
@@ -5299,7 +5124,7 @@
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
       <c r="H80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I80" s="16">
@@ -5315,7 +5140,6 @@
         <v>15</v>
       </c>
       <c r="M80" s="16">
-        <f t="shared" si="5"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -5326,7 +5150,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I81" s="16">
@@ -5342,7 +5166,6 @@
         <v>15</v>
       </c>
       <c r="M81" s="16">
-        <f t="shared" si="5"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -5353,7 +5176,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
       <c r="H82" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I82" s="16">
@@ -5369,7 +5192,6 @@
         <v>15</v>
       </c>
       <c r="M82" s="16">
-        <f t="shared" si="5"/>
         <v>5.4034582132564887E-3</v>
       </c>
     </row>
@@ -5380,7 +5202,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I83" s="16">
@@ -5396,7 +5218,6 @@
         <v>17</v>
       </c>
       <c r="M83" s="16">
-        <f t="shared" si="5"/>
         <v>0.12968299711815562</v>
       </c>
     </row>
@@ -5407,7 +5228,7 @@
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
       <c r="H84" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I84" s="16">
@@ -5423,7 +5244,6 @@
         <v>17</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" si="5"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -5434,7 +5254,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I85" s="16">
@@ -5450,7 +5270,6 @@
         <v>17</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="5"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -5461,7 +5280,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
       <c r="H86" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I86" s="16">
@@ -5477,7 +5296,6 @@
         <v>17</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="5"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -5488,7 +5306,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I87" s="16">
@@ -5504,7 +5322,6 @@
         <v>9</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="5"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -5515,7 +5332,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
       <c r="H88" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I88" s="16">
@@ -5531,7 +5348,6 @@
         <v>9</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="5"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -5542,7 +5358,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
       <c r="H89" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I89" s="16">
@@ -5558,7 +5374,6 @@
         <v>9</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="5"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -5569,7 +5384,7 @@
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I90" s="16">
@@ -5585,7 +5400,6 @@
         <v>9</v>
       </c>
       <c r="M90" s="16">
-        <f t="shared" si="5"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -5596,7 +5410,7 @@
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
       <c r="H91" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I91" s="16">
@@ -5612,7 +5426,6 @@
         <v>15</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="5"/>
         <v>5.4034582132564818E-3</v>
       </c>
     </row>
@@ -5623,7 +5436,7 @@
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
       <c r="H92" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I92" s="16">
@@ -5639,7 +5452,6 @@
         <v>15</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="5"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -5650,7 +5462,7 @@
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
       <c r="H93" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I93" s="16">
@@ -5666,7 +5478,6 @@
         <v>15</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="5"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -5677,7 +5488,7 @@
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
       <c r="H94" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I94" s="16">
@@ -5693,7 +5504,6 @@
         <v>15</v>
       </c>
       <c r="M94" s="16">
-        <f t="shared" si="5"/>
         <v>2.7017291066282444E-3</v>
       </c>
     </row>
@@ -5704,7 +5514,7 @@
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
       <c r="H95" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I95" s="16">
@@ -5720,7 +5530,6 @@
         <v>17</v>
       </c>
       <c r="M95" s="16">
-        <f t="shared" si="5"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -5731,7 +5540,7 @@
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
       <c r="H96" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I96" s="16">
@@ -5747,7 +5556,6 @@
         <v>17</v>
       </c>
       <c r="M96" s="16">
-        <f t="shared" si="5"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -5758,7 +5566,7 @@
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
       <c r="H97" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I97" s="16">
@@ -5774,7 +5582,6 @@
         <v>17</v>
       </c>
       <c r="M97" s="16">
-        <f t="shared" si="5"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -5785,7 +5592,7 @@
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
       <c r="H98" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I98" s="16">
@@ -5801,7 +5608,6 @@
         <v>17</v>
       </c>
       <c r="M98" s="16">
-        <f t="shared" si="5"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -5812,7 +5618,7 @@
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
       <c r="H99" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I99" s="16">
@@ -5828,7 +5634,6 @@
         <v>9</v>
       </c>
       <c r="M99" s="16">
-        <f t="shared" si="5"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -5839,7 +5644,7 @@
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
       <c r="H100" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I100" s="16">
@@ -5855,7 +5660,6 @@
         <v>9</v>
       </c>
       <c r="M100" s="16">
-        <f t="shared" si="5"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -5866,7 +5670,7 @@
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
       <c r="H101" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I101" s="16">
@@ -5882,7 +5686,6 @@
         <v>9</v>
       </c>
       <c r="M101" s="16">
-        <f t="shared" si="5"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -5893,7 +5696,7 @@
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
       <c r="H102" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I102" s="16">
@@ -5909,7 +5712,6 @@
         <v>9</v>
       </c>
       <c r="M102" s="16">
-        <f t="shared" si="5"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -5920,7 +5722,7 @@
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
       <c r="H103" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I103" s="16">
@@ -5936,7 +5738,6 @@
         <v>15</v>
       </c>
       <c r="M103" s="16">
-        <f t="shared" si="5"/>
         <v>2.7017291066282409E-3</v>
       </c>
     </row>
@@ -5947,7 +5748,7 @@
       <c r="F104" s="17"/>
       <c r="G104" s="17"/>
       <c r="H104" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I104" s="16">
@@ -5963,7 +5764,6 @@
         <v>15</v>
       </c>
       <c r="M104" s="16">
-        <f t="shared" si="5"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
@@ -5974,7 +5774,7 @@
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I105" s="16">
@@ -5990,7 +5790,6 @@
         <v>15</v>
       </c>
       <c r="M105" s="16">
-        <f t="shared" si="5"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
@@ -6001,7 +5800,7 @@
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
       <c r="H106" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I106" s="16">
@@ -6017,7 +5816,6 @@
         <v>15</v>
       </c>
       <c r="M106" s="16">
-        <f t="shared" si="5"/>
         <v>1.3508645533141222E-3</v>
       </c>
     </row>
@@ -6028,7 +5826,7 @@
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I107" s="16">
@@ -6044,7 +5842,6 @@
         <v>17</v>
       </c>
       <c r="M107" s="16">
-        <f t="shared" si="5"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -6055,7 +5852,7 @@
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
       <c r="H108" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I108" s="16">
@@ -6071,7 +5868,6 @@
         <v>17</v>
       </c>
       <c r="M108" s="16">
-        <f t="shared" si="5"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -6082,7 +5878,7 @@
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I109" s="16">
@@ -6098,7 +5894,6 @@
         <v>17</v>
       </c>
       <c r="M109" s="16">
-        <f t="shared" si="5"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -6109,7 +5904,7 @@
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
       <c r="H110" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I110" s="16">
@@ -6125,7 +5920,6 @@
         <v>17</v>
       </c>
       <c r="M110" s="16">
-        <f t="shared" si="5"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -6136,7 +5930,7 @@
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I111" s="16">
@@ -6152,7 +5946,6 @@
         <v>9</v>
       </c>
       <c r="M111" s="16">
-        <f t="shared" si="5"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -6163,7 +5956,7 @@
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I112" s="16">
@@ -6179,7 +5972,6 @@
         <v>9</v>
       </c>
       <c r="M112" s="16">
-        <f t="shared" si="5"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -6190,7 +5982,7 @@
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
       <c r="H113" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I113" s="16">
@@ -6206,7 +5998,6 @@
         <v>9</v>
       </c>
       <c r="M113" s="16">
-        <f t="shared" si="5"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -6217,7 +6008,7 @@
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
       <c r="H114" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I114" s="16">
@@ -6233,7 +6024,6 @@
         <v>9</v>
       </c>
       <c r="M114" s="16">
-        <f t="shared" si="5"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
@@ -6244,7 +6034,7 @@
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
       <c r="H115" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I115" s="16">
@@ -6260,7 +6050,6 @@
         <v>15</v>
       </c>
       <c r="M115" s="16">
-        <f t="shared" si="5"/>
         <v>1.3508645533141204E-3</v>
       </c>
     </row>
@@ -6271,7 +6060,7 @@
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
       <c r="H116" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I116" s="16">
@@ -6287,7 +6076,6 @@
         <v>15</v>
       </c>
       <c r="M116" s="16">
-        <f t="shared" si="5"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
@@ -6298,7 +6086,7 @@
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
       <c r="H117" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I117" s="16">
@@ -6314,7 +6102,6 @@
         <v>15</v>
       </c>
       <c r="M117" s="16">
-        <f t="shared" si="5"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
@@ -6325,7 +6112,7 @@
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
       <c r="H118" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I118" s="16">
@@ -6341,7 +6128,6 @@
         <v>15</v>
       </c>
       <c r="M118" s="16">
-        <f t="shared" si="5"/>
         <v>6.7543227665706109E-4</v>
       </c>
     </row>
@@ -6352,7 +6138,7 @@
       <c r="F119" s="17"/>
       <c r="G119" s="17"/>
       <c r="H119" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I119" s="16">
@@ -6368,7 +6154,6 @@
         <v>17</v>
       </c>
       <c r="M119" s="16">
-        <f t="shared" si="5"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -6379,7 +6164,7 @@
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
       <c r="H120" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I120" s="16">
@@ -6395,7 +6180,6 @@
         <v>17</v>
       </c>
       <c r="M120" s="16">
-        <f t="shared" si="5"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -6406,7 +6190,7 @@
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
       <c r="H121" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I121" s="16">
@@ -6422,7 +6206,6 @@
         <v>17</v>
       </c>
       <c r="M121" s="16">
-        <f t="shared" si="5"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -6433,7 +6216,7 @@
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
       <c r="H122" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I122" s="16">
@@ -6449,7 +6232,6 @@
         <v>17</v>
       </c>
       <c r="M122" s="16">
-        <f t="shared" si="5"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
@@ -6476,7 +6258,6 @@
         <v>9</v>
       </c>
       <c r="M123" s="16">
-        <f>M63*0.5</f>
         <v>0.12968299711815562</v>
       </c>
     </row>
@@ -6487,7 +6268,7 @@
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
       <c r="H124" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I124" s="16">
@@ -6503,7 +6284,6 @@
         <v>9</v>
       </c>
       <c r="M124" s="16">
-        <f t="shared" si="5"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -6514,7 +6294,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
       <c r="H125" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I125" s="16">
@@ -6530,7 +6310,6 @@
         <v>9</v>
       </c>
       <c r="M125" s="16">
-        <f t="shared" si="5"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -6541,7 +6320,7 @@
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
       <c r="H126" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I126" s="16">
@@ -6557,7 +6336,6 @@
         <v>9</v>
       </c>
       <c r="M126" s="16">
-        <f t="shared" si="5"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -6568,7 +6346,7 @@
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
       <c r="H127" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I127" s="16">
@@ -6584,7 +6362,6 @@
         <v>15</v>
       </c>
       <c r="M127" s="16">
-        <f t="shared" si="5"/>
         <v>1.0806916426512964E-2</v>
       </c>
     </row>
@@ -6595,7 +6372,7 @@
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
       <c r="H128" s="15">
-        <f t="shared" ref="H128:H182" si="6">H68+1</f>
+        <f t="shared" ref="H128:H182" si="2">H68+1</f>
         <v>3</v>
       </c>
       <c r="I128" s="16">
@@ -6611,7 +6388,6 @@
         <v>15</v>
       </c>
       <c r="M128" s="16">
-        <f t="shared" ref="M128:M182" si="7">M68*0.5</f>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -6622,7 +6398,7 @@
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
       <c r="H129" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I129" s="16">
@@ -6638,7 +6414,6 @@
         <v>15</v>
       </c>
       <c r="M129" s="16">
-        <f t="shared" si="7"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -6649,7 +6424,7 @@
       <c r="F130" s="17"/>
       <c r="G130" s="17"/>
       <c r="H130" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I130" s="16">
@@ -6665,7 +6440,6 @@
         <v>15</v>
       </c>
       <c r="M130" s="16">
-        <f t="shared" si="7"/>
         <v>5.4034582132564887E-3</v>
       </c>
     </row>
@@ -6676,7 +6450,7 @@
       <c r="F131" s="17"/>
       <c r="G131" s="17"/>
       <c r="H131" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I131" s="16">
@@ -6692,7 +6466,6 @@
         <v>17</v>
       </c>
       <c r="M131" s="16">
-        <f t="shared" si="7"/>
         <v>0.12968299711815562</v>
       </c>
     </row>
@@ -6703,7 +6476,7 @@
       <c r="F132" s="17"/>
       <c r="G132" s="17"/>
       <c r="H132" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I132" s="16">
@@ -6719,7 +6492,6 @@
         <v>17</v>
       </c>
       <c r="M132" s="16">
-        <f t="shared" si="7"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -6730,7 +6502,7 @@
       <c r="F133" s="17"/>
       <c r="G133" s="17"/>
       <c r="H133" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I133" s="16">
@@ -6746,7 +6518,6 @@
         <v>17</v>
       </c>
       <c r="M133" s="16">
-        <f t="shared" si="7"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -6757,7 +6528,7 @@
       <c r="F134" s="17"/>
       <c r="G134" s="17"/>
       <c r="H134" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I134" s="16">
@@ -6773,7 +6544,6 @@
         <v>17</v>
       </c>
       <c r="M134" s="16">
-        <f t="shared" si="7"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -6784,7 +6554,7 @@
       <c r="F135" s="17"/>
       <c r="G135" s="17"/>
       <c r="H135" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I135" s="16">
@@ -6800,7 +6570,6 @@
         <v>9</v>
       </c>
       <c r="M135" s="16">
-        <f t="shared" si="7"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -6811,7 +6580,7 @@
       <c r="F136" s="17"/>
       <c r="G136" s="17"/>
       <c r="H136" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I136" s="16">
@@ -6827,7 +6596,6 @@
         <v>9</v>
       </c>
       <c r="M136" s="16">
-        <f t="shared" si="7"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -6838,7 +6606,7 @@
       <c r="F137" s="17"/>
       <c r="G137" s="17"/>
       <c r="H137" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I137" s="16">
@@ -6854,7 +6622,6 @@
         <v>9</v>
       </c>
       <c r="M137" s="16">
-        <f t="shared" si="7"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -6865,7 +6632,7 @@
       <c r="F138" s="17"/>
       <c r="G138" s="17"/>
       <c r="H138" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I138" s="16">
@@ -6881,7 +6648,6 @@
         <v>9</v>
       </c>
       <c r="M138" s="16">
-        <f t="shared" si="7"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -6892,7 +6658,7 @@
       <c r="F139" s="17"/>
       <c r="G139" s="17"/>
       <c r="H139" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I139" s="16">
@@ -6908,7 +6674,6 @@
         <v>15</v>
       </c>
       <c r="M139" s="16">
-        <f t="shared" si="7"/>
         <v>5.4034582132564818E-3</v>
       </c>
     </row>
@@ -6919,7 +6684,7 @@
       <c r="F140" s="17"/>
       <c r="G140" s="17"/>
       <c r="H140" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I140" s="16">
@@ -6935,7 +6700,6 @@
         <v>15</v>
       </c>
       <c r="M140" s="16">
-        <f t="shared" si="7"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -6946,7 +6710,7 @@
       <c r="F141" s="17"/>
       <c r="G141" s="17"/>
       <c r="H141" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I141" s="16">
@@ -6962,7 +6726,6 @@
         <v>15</v>
       </c>
       <c r="M141" s="16">
-        <f t="shared" si="7"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -6973,7 +6736,7 @@
       <c r="F142" s="17"/>
       <c r="G142" s="17"/>
       <c r="H142" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I142" s="16">
@@ -6989,7 +6752,6 @@
         <v>15</v>
       </c>
       <c r="M142" s="16">
-        <f t="shared" si="7"/>
         <v>2.7017291066282444E-3</v>
       </c>
     </row>
@@ -7000,7 +6762,7 @@
       <c r="F143" s="17"/>
       <c r="G143" s="17"/>
       <c r="H143" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I143" s="16">
@@ -7016,7 +6778,6 @@
         <v>17</v>
       </c>
       <c r="M143" s="16">
-        <f t="shared" si="7"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
@@ -7027,7 +6788,7 @@
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
       <c r="H144" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I144" s="16">
@@ -7043,7 +6804,6 @@
         <v>17</v>
       </c>
       <c r="M144" s="16">
-        <f t="shared" si="7"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -7054,7 +6814,7 @@
       <c r="F145" s="17"/>
       <c r="G145" s="17"/>
       <c r="H145" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I145" s="16">
@@ -7070,7 +6830,6 @@
         <v>17</v>
       </c>
       <c r="M145" s="16">
-        <f t="shared" si="7"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -7081,7 +6840,7 @@
       <c r="F146" s="17"/>
       <c r="G146" s="17"/>
       <c r="H146" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I146" s="16">
@@ -7097,7 +6856,6 @@
         <v>17</v>
       </c>
       <c r="M146" s="16">
-        <f t="shared" si="7"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -7108,7 +6866,7 @@
       <c r="F147" s="17"/>
       <c r="G147" s="17"/>
       <c r="H147" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I147" s="16">
@@ -7124,7 +6882,6 @@
         <v>9</v>
       </c>
       <c r="M147" s="16">
-        <f t="shared" si="7"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -7135,7 +6892,7 @@
       <c r="F148" s="17"/>
       <c r="G148" s="17"/>
       <c r="H148" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I148" s="16">
@@ -7151,7 +6908,6 @@
         <v>9</v>
       </c>
       <c r="M148" s="16">
-        <f t="shared" si="7"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -7162,7 +6918,7 @@
       <c r="F149" s="17"/>
       <c r="G149" s="17"/>
       <c r="H149" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I149" s="16">
@@ -7178,7 +6934,6 @@
         <v>9</v>
       </c>
       <c r="M149" s="16">
-        <f t="shared" si="7"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -7189,7 +6944,7 @@
       <c r="F150" s="17"/>
       <c r="G150" s="17"/>
       <c r="H150" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I150" s="16">
@@ -7205,7 +6960,6 @@
         <v>9</v>
       </c>
       <c r="M150" s="16">
-        <f t="shared" si="7"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -7216,7 +6970,7 @@
       <c r="F151" s="17"/>
       <c r="G151" s="17"/>
       <c r="H151" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I151" s="16">
@@ -7232,7 +6986,6 @@
         <v>15</v>
       </c>
       <c r="M151" s="16">
-        <f t="shared" si="7"/>
         <v>2.7017291066282409E-3</v>
       </c>
     </row>
@@ -7243,7 +6996,7 @@
       <c r="F152" s="17"/>
       <c r="G152" s="17"/>
       <c r="H152" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I152" s="16">
@@ -7259,7 +7012,6 @@
         <v>15</v>
       </c>
       <c r="M152" s="16">
-        <f t="shared" si="7"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
@@ -7270,7 +7022,7 @@
       <c r="F153" s="17"/>
       <c r="G153" s="17"/>
       <c r="H153" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I153" s="16">
@@ -7286,7 +7038,6 @@
         <v>15</v>
       </c>
       <c r="M153" s="16">
-        <f t="shared" si="7"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
@@ -7297,7 +7048,7 @@
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
       <c r="H154" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I154" s="16">
@@ -7313,7 +7064,6 @@
         <v>15</v>
       </c>
       <c r="M154" s="16">
-        <f t="shared" si="7"/>
         <v>1.3508645533141222E-3</v>
       </c>
     </row>
@@ -7324,7 +7074,7 @@
       <c r="F155" s="17"/>
       <c r="G155" s="17"/>
       <c r="H155" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I155" s="16">
@@ -7340,7 +7090,6 @@
         <v>17</v>
       </c>
       <c r="M155" s="16">
-        <f t="shared" si="7"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
@@ -7351,7 +7100,7 @@
       <c r="F156" s="17"/>
       <c r="G156" s="17"/>
       <c r="H156" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I156" s="16">
@@ -7367,7 +7116,6 @@
         <v>17</v>
       </c>
       <c r="M156" s="16">
-        <f t="shared" si="7"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -7378,7 +7126,7 @@
       <c r="F157" s="17"/>
       <c r="G157" s="17"/>
       <c r="H157" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I157" s="16">
@@ -7394,7 +7142,6 @@
         <v>17</v>
       </c>
       <c r="M157" s="16">
-        <f t="shared" si="7"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -7405,7 +7152,7 @@
       <c r="F158" s="17"/>
       <c r="G158" s="17"/>
       <c r="H158" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I158" s="16">
@@ -7421,7 +7168,6 @@
         <v>17</v>
       </c>
       <c r="M158" s="16">
-        <f t="shared" si="7"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -7432,7 +7178,7 @@
       <c r="F159" s="17"/>
       <c r="G159" s="17"/>
       <c r="H159" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I159" s="16">
@@ -7448,7 +7194,6 @@
         <v>9</v>
       </c>
       <c r="M159" s="16">
-        <f t="shared" si="7"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -7459,7 +7204,7 @@
       <c r="F160" s="17"/>
       <c r="G160" s="17"/>
       <c r="H160" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I160" s="16">
@@ -7475,7 +7220,6 @@
         <v>9</v>
       </c>
       <c r="M160" s="16">
-        <f t="shared" si="7"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -7486,7 +7230,7 @@
       <c r="F161" s="17"/>
       <c r="G161" s="17"/>
       <c r="H161" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I161" s="16">
@@ -7502,7 +7246,6 @@
         <v>9</v>
       </c>
       <c r="M161" s="16">
-        <f t="shared" si="7"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -7513,7 +7256,7 @@
       <c r="F162" s="17"/>
       <c r="G162" s="17"/>
       <c r="H162" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I162" s="16">
@@ -7529,7 +7272,6 @@
         <v>9</v>
       </c>
       <c r="M162" s="16">
-        <f t="shared" si="7"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
@@ -7540,7 +7282,7 @@
       <c r="F163" s="17"/>
       <c r="G163" s="17"/>
       <c r="H163" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I163" s="16">
@@ -7556,7 +7298,6 @@
         <v>15</v>
       </c>
       <c r="M163" s="16">
-        <f t="shared" si="7"/>
         <v>1.3508645533141204E-3</v>
       </c>
     </row>
@@ -7567,7 +7308,7 @@
       <c r="F164" s="17"/>
       <c r="G164" s="17"/>
       <c r="H164" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I164" s="16">
@@ -7583,7 +7324,6 @@
         <v>15</v>
       </c>
       <c r="M164" s="16">
-        <f t="shared" si="7"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
@@ -7594,7 +7334,7 @@
       <c r="F165" s="17"/>
       <c r="G165" s="17"/>
       <c r="H165" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I165" s="16">
@@ -7610,7 +7350,6 @@
         <v>15</v>
       </c>
       <c r="M165" s="16">
-        <f t="shared" si="7"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
@@ -7621,7 +7360,7 @@
       <c r="F166" s="17"/>
       <c r="G166" s="17"/>
       <c r="H166" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I166" s="16">
@@ -7637,7 +7376,6 @@
         <v>15</v>
       </c>
       <c r="M166" s="16">
-        <f t="shared" si="7"/>
         <v>6.7543227665706109E-4</v>
       </c>
     </row>
@@ -7648,7 +7386,7 @@
       <c r="F167" s="17"/>
       <c r="G167" s="17"/>
       <c r="H167" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I167" s="16">
@@ -7664,7 +7402,6 @@
         <v>17</v>
       </c>
       <c r="M167" s="16">
-        <f t="shared" si="7"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
@@ -7675,7 +7412,7 @@
       <c r="F168" s="17"/>
       <c r="G168" s="17"/>
       <c r="H168" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I168" s="16">
@@ -7691,7 +7428,6 @@
         <v>17</v>
       </c>
       <c r="M168" s="16">
-        <f t="shared" si="7"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
@@ -7702,7 +7438,7 @@
       <c r="F169" s="17"/>
       <c r="G169" s="17"/>
       <c r="H169" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I169" s="16">
@@ -7718,7 +7454,6 @@
         <v>17</v>
       </c>
       <c r="M169" s="16">
-        <f t="shared" si="7"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
@@ -7729,7 +7464,7 @@
       <c r="F170" s="17"/>
       <c r="G170" s="17"/>
       <c r="H170" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I170" s="16">
@@ -7745,13 +7480,12 @@
         <v>17</v>
       </c>
       <c r="M170" s="16">
-        <f t="shared" si="7"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="171" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H171" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I171" s="16">
@@ -7767,13 +7501,12 @@
         <v>9</v>
       </c>
       <c r="M171" s="16">
-        <f t="shared" si="7"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="172" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H172" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I172" s="16">
@@ -7789,13 +7522,12 @@
         <v>9</v>
       </c>
       <c r="M172" s="16">
-        <f t="shared" si="7"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="173" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H173" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I173" s="16">
@@ -7811,13 +7543,12 @@
         <v>9</v>
       </c>
       <c r="M173" s="16">
-        <f t="shared" si="7"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="174" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H174" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I174" s="16">
@@ -7833,13 +7564,12 @@
         <v>9</v>
       </c>
       <c r="M174" s="16">
-        <f t="shared" si="7"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="175" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H175" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I175" s="16">
@@ -7855,13 +7585,12 @@
         <v>15</v>
       </c>
       <c r="M175" s="16">
-        <f t="shared" si="7"/>
         <v>6.7543227665706022E-4</v>
       </c>
     </row>
     <row r="176" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H176" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I176" s="16">
@@ -7877,13 +7606,12 @@
         <v>15</v>
       </c>
       <c r="M176" s="16">
-        <f t="shared" si="7"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="177" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H177" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I177" s="16">
@@ -7899,13 +7627,12 @@
         <v>15</v>
       </c>
       <c r="M177" s="16">
-        <f t="shared" si="7"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="178" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H178" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I178" s="16">
@@ -7921,13 +7648,12 @@
         <v>15</v>
       </c>
       <c r="M178" s="16">
-        <f t="shared" si="7"/>
         <v>3.3771613832853055E-4</v>
       </c>
     </row>
     <row r="179" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H179" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I179" s="16">
@@ -7943,13 +7669,12 @@
         <v>17</v>
       </c>
       <c r="M179" s="16">
-        <f t="shared" si="7"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="180" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H180" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I180" s="16">
@@ -7965,13 +7690,12 @@
         <v>17</v>
       </c>
       <c r="M180" s="16">
-        <f t="shared" si="7"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="181" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H181" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I181" s="16">
@@ -7987,13 +7711,12 @@
         <v>17</v>
       </c>
       <c r="M181" s="16">
-        <f t="shared" si="7"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="182" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H182" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I182" s="16">
@@ -8009,7 +7732,6 @@
         <v>17</v>
       </c>
       <c r="M182" s="16">
-        <f t="shared" si="7"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
@@ -8031,13 +7753,12 @@
         <v>9</v>
       </c>
       <c r="M183" s="16">
-        <f>M123*0.5</f>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
     <row r="184" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H184" s="15">
-        <f t="shared" ref="H184:H242" si="8">H124+1</f>
+        <f t="shared" ref="H184:H242" si="3">H124+1</f>
         <v>4</v>
       </c>
       <c r="I184" s="16">
@@ -8053,13 +7774,12 @@
         <v>9</v>
       </c>
       <c r="M184" s="16">
-        <f t="shared" ref="M184:M242" si="9">M124*0.5</f>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="185" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H185" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I185" s="16">
@@ -8075,13 +7795,12 @@
         <v>9</v>
       </c>
       <c r="M185" s="16">
-        <f t="shared" si="9"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="186" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H186" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I186" s="16">
@@ -8097,13 +7816,12 @@
         <v>9</v>
       </c>
       <c r="M186" s="16">
-        <f t="shared" si="9"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="187" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H187" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I187" s="16">
@@ -8119,13 +7837,12 @@
         <v>15</v>
       </c>
       <c r="M187" s="16">
-        <f t="shared" si="9"/>
         <v>5.4034582132564818E-3</v>
       </c>
     </row>
     <row r="188" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H188" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I188" s="16">
@@ -8141,13 +7858,12 @@
         <v>15</v>
       </c>
       <c r="M188" s="16">
-        <f t="shared" si="9"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="189" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H189" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I189" s="16">
@@ -8163,13 +7879,12 @@
         <v>15</v>
       </c>
       <c r="M189" s="16">
-        <f t="shared" si="9"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="190" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H190" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I190" s="16">
@@ -8185,13 +7900,12 @@
         <v>15</v>
       </c>
       <c r="M190" s="16">
-        <f t="shared" si="9"/>
         <v>2.7017291066282444E-3</v>
       </c>
     </row>
     <row r="191" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H191" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I191" s="16">
@@ -8207,13 +7921,12 @@
         <v>17</v>
       </c>
       <c r="M191" s="16">
-        <f t="shared" si="9"/>
         <v>6.4841498559077809E-2</v>
       </c>
     </row>
     <row r="192" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H192" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I192" s="16">
@@ -8229,13 +7942,12 @@
         <v>17</v>
       </c>
       <c r="M192" s="16">
-        <f t="shared" si="9"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="193" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H193" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I193" s="16">
@@ -8251,13 +7963,12 @@
         <v>17</v>
       </c>
       <c r="M193" s="16">
-        <f t="shared" si="9"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="194" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H194" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I194" s="16">
@@ -8273,13 +7984,12 @@
         <v>17</v>
       </c>
       <c r="M194" s="16">
-        <f t="shared" si="9"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="195" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H195" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I195" s="16">
@@ -8295,13 +8005,12 @@
         <v>9</v>
       </c>
       <c r="M195" s="16">
-        <f t="shared" si="9"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="196" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H196" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I196" s="16">
@@ -8317,13 +8026,12 @@
         <v>9</v>
       </c>
       <c r="M196" s="16">
-        <f t="shared" si="9"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="197" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H197" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I197" s="16">
@@ -8339,13 +8047,12 @@
         <v>9</v>
       </c>
       <c r="M197" s="16">
-        <f t="shared" si="9"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="198" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H198" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I198" s="16">
@@ -8361,13 +8068,12 @@
         <v>9</v>
       </c>
       <c r="M198" s="16">
-        <f t="shared" si="9"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="199" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H199" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I199" s="16">
@@ -8383,13 +8089,12 @@
         <v>15</v>
       </c>
       <c r="M199" s="16">
-        <f t="shared" si="9"/>
         <v>2.7017291066282409E-3</v>
       </c>
     </row>
     <row r="200" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H200" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I200" s="16">
@@ -8405,13 +8110,12 @@
         <v>15</v>
       </c>
       <c r="M200" s="16">
-        <f t="shared" si="9"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="201" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H201" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I201" s="16">
@@ -8427,13 +8131,12 @@
         <v>15</v>
       </c>
       <c r="M201" s="16">
-        <f t="shared" si="9"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="202" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H202" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I202" s="16">
@@ -8449,13 +8152,12 @@
         <v>15</v>
       </c>
       <c r="M202" s="16">
-        <f t="shared" si="9"/>
         <v>1.3508645533141222E-3</v>
       </c>
     </row>
     <row r="203" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H203" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I203" s="16">
@@ -8471,13 +8173,12 @@
         <v>17</v>
       </c>
       <c r="M203" s="16">
-        <f t="shared" si="9"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="204" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H204" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I204" s="16">
@@ -8493,13 +8194,12 @@
         <v>17</v>
       </c>
       <c r="M204" s="16">
-        <f t="shared" si="9"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="205" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H205" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I205" s="16">
@@ -8515,13 +8215,12 @@
         <v>17</v>
       </c>
       <c r="M205" s="16">
-        <f t="shared" si="9"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="206" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H206" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I206" s="16">
@@ -8537,13 +8236,12 @@
         <v>17</v>
       </c>
       <c r="M206" s="16">
-        <f t="shared" si="9"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="207" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H207" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I207" s="16">
@@ -8559,13 +8257,12 @@
         <v>9</v>
       </c>
       <c r="M207" s="16">
-        <f t="shared" si="9"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="208" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H208" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I208" s="16">
@@ -8581,13 +8278,12 @@
         <v>9</v>
       </c>
       <c r="M208" s="16">
-        <f t="shared" si="9"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="209" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H209" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I209" s="16">
@@ -8603,13 +8299,12 @@
         <v>9</v>
       </c>
       <c r="M209" s="16">
-        <f t="shared" si="9"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="210" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H210" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I210" s="16">
@@ -8625,13 +8320,12 @@
         <v>9</v>
       </c>
       <c r="M210" s="16">
-        <f t="shared" si="9"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="211" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H211" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I211" s="16">
@@ -8647,13 +8341,12 @@
         <v>15</v>
       </c>
       <c r="M211" s="16">
-        <f t="shared" si="9"/>
         <v>1.3508645533141204E-3</v>
       </c>
     </row>
     <row r="212" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H212" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I212" s="16">
@@ -8669,13 +8362,12 @@
         <v>15</v>
       </c>
       <c r="M212" s="16">
-        <f t="shared" si="9"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="213" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H213" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I213" s="16">
@@ -8691,13 +8383,12 @@
         <v>15</v>
       </c>
       <c r="M213" s="16">
-        <f t="shared" si="9"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="214" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H214" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I214" s="16">
@@ -8713,13 +8404,12 @@
         <v>15</v>
       </c>
       <c r="M214" s="16">
-        <f t="shared" si="9"/>
         <v>6.7543227665706109E-4</v>
       </c>
     </row>
     <row r="215" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H215" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I215" s="16">
@@ -8735,13 +8425,12 @@
         <v>17</v>
       </c>
       <c r="M215" s="16">
-        <f t="shared" si="9"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="216" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H216" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I216" s="16">
@@ -8757,13 +8446,12 @@
         <v>17</v>
       </c>
       <c r="M216" s="16">
-        <f t="shared" si="9"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="217" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H217" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I217" s="16">
@@ -8779,13 +8467,12 @@
         <v>17</v>
       </c>
       <c r="M217" s="16">
-        <f t="shared" si="9"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="218" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H218" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I218" s="16">
@@ -8801,13 +8488,12 @@
         <v>17</v>
       </c>
       <c r="M218" s="16">
-        <f t="shared" si="9"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="219" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H219" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I219" s="16">
@@ -8823,13 +8509,12 @@
         <v>9</v>
       </c>
       <c r="M219" s="16">
-        <f t="shared" si="9"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="220" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H220" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I220" s="16">
@@ -8845,13 +8530,12 @@
         <v>9</v>
       </c>
       <c r="M220" s="16">
-        <f t="shared" si="9"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="221" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H221" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I221" s="16">
@@ -8867,13 +8551,12 @@
         <v>9</v>
       </c>
       <c r="M221" s="16">
-        <f t="shared" si="9"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="222" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H222" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I222" s="16">
@@ -8889,13 +8572,12 @@
         <v>9</v>
       </c>
       <c r="M222" s="16">
-        <f t="shared" si="9"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="223" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H223" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I223" s="16">
@@ -8911,13 +8593,12 @@
         <v>15</v>
       </c>
       <c r="M223" s="16">
-        <f t="shared" si="9"/>
         <v>6.7543227665706022E-4</v>
       </c>
     </row>
     <row r="224" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H224" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I224" s="16">
@@ -8933,13 +8614,12 @@
         <v>15</v>
       </c>
       <c r="M224" s="16">
-        <f t="shared" si="9"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="225" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H225" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I225" s="16">
@@ -8955,13 +8635,12 @@
         <v>15</v>
       </c>
       <c r="M225" s="16">
-        <f t="shared" si="9"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="226" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H226" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I226" s="16">
@@ -8977,13 +8656,12 @@
         <v>15</v>
       </c>
       <c r="M226" s="16">
-        <f t="shared" si="9"/>
         <v>3.3771613832853055E-4</v>
       </c>
     </row>
     <row r="227" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H227" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I227" s="16">
@@ -8999,13 +8677,12 @@
         <v>17</v>
       </c>
       <c r="M227" s="16">
-        <f t="shared" si="9"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="228" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H228" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I228" s="16">
@@ -9021,13 +8698,12 @@
         <v>17</v>
       </c>
       <c r="M228" s="16">
-        <f t="shared" si="9"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="229" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H229" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I229" s="16">
@@ -9043,13 +8719,12 @@
         <v>17</v>
       </c>
       <c r="M229" s="16">
-        <f t="shared" si="9"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="230" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H230" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I230" s="16">
@@ -9065,13 +8740,12 @@
         <v>17</v>
       </c>
       <c r="M230" s="16">
-        <f t="shared" si="9"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="231" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H231" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I231" s="16">
@@ -9087,13 +8761,12 @@
         <v>9</v>
       </c>
       <c r="M231" s="16">
-        <f t="shared" si="9"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="232" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H232" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I232" s="16">
@@ -9109,13 +8782,12 @@
         <v>9</v>
       </c>
       <c r="M232" s="16">
-        <f t="shared" si="9"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="233" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H233" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I233" s="16">
@@ -9131,13 +8803,12 @@
         <v>9</v>
       </c>
       <c r="M233" s="16">
-        <f t="shared" si="9"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="234" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H234" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I234" s="16">
@@ -9153,13 +8824,12 @@
         <v>9</v>
       </c>
       <c r="M234" s="16">
-        <f t="shared" si="9"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="235" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H235" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I235" s="16">
@@ -9175,13 +8845,12 @@
         <v>15</v>
       </c>
       <c r="M235" s="16">
-        <f t="shared" si="9"/>
         <v>3.3771613832853011E-4</v>
       </c>
     </row>
     <row r="236" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H236" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I236" s="16">
@@ -9197,13 +8866,12 @@
         <v>15</v>
       </c>
       <c r="M236" s="16">
-        <f t="shared" si="9"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="237" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H237" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I237" s="16">
@@ -9219,13 +8887,12 @@
         <v>15</v>
       </c>
       <c r="M237" s="16">
-        <f t="shared" si="9"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="238" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H238" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I238" s="16">
@@ -9241,13 +8908,12 @@
         <v>15</v>
       </c>
       <c r="M238" s="16">
-        <f t="shared" si="9"/>
         <v>1.6885806916426527E-4</v>
       </c>
     </row>
     <row r="239" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H239" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I239" s="16">
@@ -9263,13 +8929,12 @@
         <v>17</v>
       </c>
       <c r="M239" s="16">
-        <f t="shared" si="9"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="240" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H240" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I240" s="16">
@@ -9285,13 +8950,12 @@
         <v>17</v>
       </c>
       <c r="M240" s="16">
-        <f t="shared" si="9"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="241" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H241" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I241" s="16">
@@ -9307,13 +8971,12 @@
         <v>17</v>
       </c>
       <c r="M241" s="16">
-        <f t="shared" si="9"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="242" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H242" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I242" s="16">
@@ -9329,7 +8992,6 @@
         <v>17</v>
       </c>
       <c r="M242" s="16">
-        <f t="shared" si="9"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
@@ -9351,13 +9013,12 @@
         <v>9</v>
       </c>
       <c r="M243" s="16">
-        <f>M183*0.5</f>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="244" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H244" s="15">
-        <f t="shared" ref="H244:H302" si="10">H184+1</f>
+        <f t="shared" ref="H244:H302" si="4">H184+1</f>
         <v>5</v>
       </c>
       <c r="I244" s="16">
@@ -9373,13 +9034,12 @@
         <v>9</v>
       </c>
       <c r="M244" s="16">
-        <f t="shared" ref="M244:M302" si="11">M184*0.5</f>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="245" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H245" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I245" s="16">
@@ -9395,13 +9055,12 @@
         <v>9</v>
       </c>
       <c r="M245" s="16">
-        <f t="shared" si="11"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="246" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H246" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I246" s="16">
@@ -9417,13 +9076,12 @@
         <v>9</v>
       </c>
       <c r="M246" s="16">
-        <f t="shared" si="11"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="247" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H247" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I247" s="16">
@@ -9439,13 +9097,12 @@
         <v>15</v>
       </c>
       <c r="M247" s="16">
-        <f t="shared" si="11"/>
         <v>2.7017291066282409E-3</v>
       </c>
     </row>
     <row r="248" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H248" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I248" s="16">
@@ -9461,13 +9118,12 @@
         <v>15</v>
       </c>
       <c r="M248" s="16">
-        <f t="shared" si="11"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="249" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H249" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I249" s="16">
@@ -9483,13 +9139,12 @@
         <v>15</v>
       </c>
       <c r="M249" s="16">
-        <f t="shared" si="11"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="250" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H250" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I250" s="16">
@@ -9505,13 +9160,12 @@
         <v>15</v>
       </c>
       <c r="M250" s="16">
-        <f t="shared" si="11"/>
         <v>1.3508645533141222E-3</v>
       </c>
     </row>
     <row r="251" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H251" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I251" s="16">
@@ -9527,13 +9181,12 @@
         <v>17</v>
       </c>
       <c r="M251" s="16">
-        <f t="shared" si="11"/>
         <v>3.2420749279538905E-2</v>
       </c>
     </row>
     <row r="252" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H252" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I252" s="16">
@@ -9549,13 +9202,12 @@
         <v>17</v>
       </c>
       <c r="M252" s="16">
-        <f t="shared" si="11"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="253" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H253" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I253" s="16">
@@ -9571,13 +9223,12 @@
         <v>17</v>
       </c>
       <c r="M253" s="16">
-        <f t="shared" si="11"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="254" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H254" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I254" s="16">
@@ -9593,13 +9244,12 @@
         <v>17</v>
       </c>
       <c r="M254" s="16">
-        <f t="shared" si="11"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="255" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H255" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I255" s="16">
@@ -9615,13 +9265,12 @@
         <v>9</v>
       </c>
       <c r="M255" s="16">
-        <f t="shared" si="11"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="256" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H256" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I256" s="16">
@@ -9637,13 +9286,12 @@
         <v>9</v>
       </c>
       <c r="M256" s="16">
-        <f t="shared" si="11"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="257" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H257" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I257" s="16">
@@ -9659,13 +9307,12 @@
         <v>9</v>
       </c>
       <c r="M257" s="16">
-        <f t="shared" si="11"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="258" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H258" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I258" s="16">
@@ -9681,13 +9328,12 @@
         <v>9</v>
       </c>
       <c r="M258" s="16">
-        <f t="shared" si="11"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="259" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H259" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I259" s="16">
@@ -9703,13 +9349,12 @@
         <v>15</v>
       </c>
       <c r="M259" s="16">
-        <f t="shared" si="11"/>
         <v>1.3508645533141204E-3</v>
       </c>
     </row>
     <row r="260" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H260" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I260" s="16">
@@ -9725,13 +9370,12 @@
         <v>15</v>
       </c>
       <c r="M260" s="16">
-        <f t="shared" si="11"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="261" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H261" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I261" s="16">
@@ -9747,13 +9391,12 @@
         <v>15</v>
       </c>
       <c r="M261" s="16">
-        <f t="shared" si="11"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="262" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H262" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I262" s="16">
@@ -9769,13 +9412,12 @@
         <v>15</v>
       </c>
       <c r="M262" s="16">
-        <f t="shared" si="11"/>
         <v>6.7543227665706109E-4</v>
       </c>
     </row>
     <row r="263" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H263" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I263" s="16">
@@ -9791,13 +9433,12 @@
         <v>17</v>
       </c>
       <c r="M263" s="16">
-        <f t="shared" si="11"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="264" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H264" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I264" s="16">
@@ -9813,13 +9454,12 @@
         <v>17</v>
       </c>
       <c r="M264" s="16">
-        <f t="shared" si="11"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="265" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H265" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I265" s="16">
@@ -9835,13 +9475,12 @@
         <v>17</v>
       </c>
       <c r="M265" s="16">
-        <f t="shared" si="11"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="266" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H266" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I266" s="16">
@@ -9857,13 +9496,12 @@
         <v>17</v>
       </c>
       <c r="M266" s="16">
-        <f t="shared" si="11"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="267" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H267" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I267" s="16">
@@ -9879,13 +9517,12 @@
         <v>9</v>
       </c>
       <c r="M267" s="16">
-        <f t="shared" si="11"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="268" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H268" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I268" s="16">
@@ -9901,13 +9538,12 @@
         <v>9</v>
       </c>
       <c r="M268" s="16">
-        <f t="shared" si="11"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="269" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H269" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I269" s="16">
@@ -9923,13 +9559,12 @@
         <v>9</v>
       </c>
       <c r="M269" s="16">
-        <f t="shared" si="11"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="270" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H270" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I270" s="16">
@@ -9945,13 +9580,12 @@
         <v>9</v>
       </c>
       <c r="M270" s="16">
-        <f t="shared" si="11"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="271" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H271" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I271" s="16">
@@ -9967,13 +9601,12 @@
         <v>15</v>
       </c>
       <c r="M271" s="16">
-        <f t="shared" si="11"/>
         <v>6.7543227665706022E-4</v>
       </c>
     </row>
     <row r="272" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H272" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I272" s="16">
@@ -9989,13 +9622,12 @@
         <v>15</v>
       </c>
       <c r="M272" s="16">
-        <f t="shared" si="11"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="273" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H273" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I273" s="16">
@@ -10011,13 +9643,12 @@
         <v>15</v>
       </c>
       <c r="M273" s="16">
-        <f t="shared" si="11"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="274" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H274" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I274" s="16">
@@ -10033,13 +9664,12 @@
         <v>15</v>
       </c>
       <c r="M274" s="16">
-        <f t="shared" si="11"/>
         <v>3.3771613832853055E-4</v>
       </c>
     </row>
     <row r="275" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H275" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I275" s="16">
@@ -10055,13 +9685,12 @@
         <v>17</v>
       </c>
       <c r="M275" s="16">
-        <f t="shared" si="11"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="276" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H276" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I276" s="16">
@@ -10077,13 +9706,12 @@
         <v>17</v>
       </c>
       <c r="M276" s="16">
-        <f t="shared" si="11"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="277" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H277" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I277" s="16">
@@ -10099,13 +9727,12 @@
         <v>17</v>
       </c>
       <c r="M277" s="16">
-        <f t="shared" si="11"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="278" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H278" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I278" s="16">
@@ -10121,13 +9748,12 @@
         <v>17</v>
       </c>
       <c r="M278" s="16">
-        <f t="shared" si="11"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="279" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H279" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I279" s="16">
@@ -10143,13 +9769,12 @@
         <v>9</v>
       </c>
       <c r="M279" s="16">
-        <f t="shared" si="11"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="280" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H280" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I280" s="16">
@@ -10165,13 +9790,12 @@
         <v>9</v>
       </c>
       <c r="M280" s="16">
-        <f t="shared" si="11"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="281" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H281" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I281" s="16">
@@ -10187,13 +9811,12 @@
         <v>9</v>
       </c>
       <c r="M281" s="16">
-        <f t="shared" si="11"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="282" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H282" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I282" s="16">
@@ -10209,13 +9832,12 @@
         <v>9</v>
       </c>
       <c r="M282" s="16">
-        <f t="shared" si="11"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="283" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H283" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I283" s="16">
@@ -10231,13 +9853,12 @@
         <v>15</v>
       </c>
       <c r="M283" s="16">
-        <f t="shared" si="11"/>
         <v>3.3771613832853011E-4</v>
       </c>
     </row>
     <row r="284" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H284" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I284" s="16">
@@ -10253,13 +9874,12 @@
         <v>15</v>
       </c>
       <c r="M284" s="16">
-        <f t="shared" si="11"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="285" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H285" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I285" s="16">
@@ -10275,13 +9895,12 @@
         <v>15</v>
       </c>
       <c r="M285" s="16">
-        <f t="shared" si="11"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="286" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H286" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I286" s="16">
@@ -10297,13 +9916,12 @@
         <v>15</v>
       </c>
       <c r="M286" s="16">
-        <f t="shared" si="11"/>
         <v>1.6885806916426527E-4</v>
       </c>
     </row>
     <row r="287" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H287" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I287" s="16">
@@ -10319,13 +9937,12 @@
         <v>17</v>
       </c>
       <c r="M287" s="16">
-        <f t="shared" si="11"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="288" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H288" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I288" s="16">
@@ -10341,13 +9958,12 @@
         <v>17</v>
       </c>
       <c r="M288" s="16">
-        <f t="shared" si="11"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="289" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H289" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I289" s="16">
@@ -10363,13 +9979,12 @@
         <v>17</v>
       </c>
       <c r="M289" s="16">
-        <f t="shared" si="11"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="290" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H290" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I290" s="16">
@@ -10385,13 +10000,12 @@
         <v>17</v>
       </c>
       <c r="M290" s="16">
-        <f t="shared" si="11"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="291" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H291" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I291" s="16">
@@ -10407,13 +10021,12 @@
         <v>9</v>
       </c>
       <c r="M291" s="16">
-        <f t="shared" si="11"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="292" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H292" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I292" s="16">
@@ -10429,13 +10042,12 @@
         <v>9</v>
       </c>
       <c r="M292" s="16">
-        <f t="shared" si="11"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="293" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H293" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I293" s="16">
@@ -10451,13 +10063,12 @@
         <v>9</v>
       </c>
       <c r="M293" s="16">
-        <f t="shared" si="11"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="294" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H294" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I294" s="16">
@@ -10473,13 +10084,12 @@
         <v>9</v>
       </c>
       <c r="M294" s="16">
-        <f t="shared" si="11"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="295" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H295" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I295" s="16">
@@ -10495,13 +10105,12 @@
         <v>15</v>
       </c>
       <c r="M295" s="16">
-        <f t="shared" si="11"/>
         <v>1.6885806916426506E-4</v>
       </c>
     </row>
     <row r="296" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H296" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I296" s="16">
@@ -10517,13 +10126,12 @@
         <v>15</v>
       </c>
       <c r="M296" s="16">
-        <f t="shared" si="11"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="297" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H297" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I297" s="16">
@@ -10539,13 +10147,12 @@
         <v>15</v>
       </c>
       <c r="M297" s="16">
-        <f t="shared" si="11"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="298" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H298" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I298" s="16">
@@ -10561,13 +10168,12 @@
         <v>15</v>
       </c>
       <c r="M298" s="16">
-        <f t="shared" si="11"/>
         <v>8.4429034582132636E-5</v>
       </c>
     </row>
     <row r="299" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H299" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I299" s="16">
@@ -10583,13 +10189,12 @@
         <v>17</v>
       </c>
       <c r="M299" s="16">
-        <f t="shared" si="11"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="300" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H300" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I300" s="16">
@@ -10605,13 +10210,12 @@
         <v>17</v>
       </c>
       <c r="M300" s="16">
-        <f t="shared" si="11"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="301" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H301" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I301" s="16">
@@ -10627,13 +10231,12 @@
         <v>17</v>
       </c>
       <c r="M301" s="16">
-        <f t="shared" si="11"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="302" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H302" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I302" s="16">
@@ -10649,7 +10252,6 @@
         <v>17</v>
       </c>
       <c r="M302" s="16">
-        <f t="shared" si="11"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
@@ -10671,13 +10273,12 @@
         <v>9</v>
       </c>
       <c r="M303" s="16">
-        <f>M243*0.5</f>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="304" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H304" s="15">
-        <f t="shared" ref="H304:H362" si="12">H244+1</f>
+        <f t="shared" ref="H304:H362" si="5">H244+1</f>
         <v>6</v>
       </c>
       <c r="I304" s="16">
@@ -10693,13 +10294,12 @@
         <v>9</v>
       </c>
       <c r="M304" s="16">
-        <f t="shared" ref="M304:M362" si="13">M244*0.5</f>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="305" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H305" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I305" s="16">
@@ -10715,13 +10315,12 @@
         <v>9</v>
       </c>
       <c r="M305" s="16">
-        <f t="shared" si="13"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="306" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H306" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I306" s="16">
@@ -10737,13 +10336,12 @@
         <v>9</v>
       </c>
       <c r="M306" s="16">
-        <f t="shared" si="13"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="307" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H307" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I307" s="16">
@@ -10759,13 +10357,12 @@
         <v>15</v>
       </c>
       <c r="M307" s="16">
-        <f t="shared" si="13"/>
         <v>1.3508645533141204E-3</v>
       </c>
     </row>
     <row r="308" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H308" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I308" s="16">
@@ -10781,13 +10378,12 @@
         <v>15</v>
       </c>
       <c r="M308" s="16">
-        <f t="shared" si="13"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="309" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H309" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I309" s="16">
@@ -10803,13 +10399,12 @@
         <v>15</v>
       </c>
       <c r="M309" s="16">
-        <f t="shared" si="13"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="310" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H310" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I310" s="16">
@@ -10825,13 +10420,12 @@
         <v>15</v>
       </c>
       <c r="M310" s="16">
-        <f t="shared" si="13"/>
         <v>6.7543227665706109E-4</v>
       </c>
     </row>
     <row r="311" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H311" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I311" s="16">
@@ -10847,13 +10441,12 @@
         <v>17</v>
       </c>
       <c r="M311" s="16">
-        <f t="shared" si="13"/>
         <v>1.6210374639769452E-2</v>
       </c>
     </row>
     <row r="312" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H312" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I312" s="16">
@@ -10869,13 +10462,12 @@
         <v>17</v>
       </c>
       <c r="M312" s="16">
-        <f t="shared" si="13"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="313" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H313" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I313" s="16">
@@ -10891,13 +10483,12 @@
         <v>17</v>
       </c>
       <c r="M313" s="16">
-        <f t="shared" si="13"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="314" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H314" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I314" s="16">
@@ -10913,13 +10504,12 @@
         <v>17</v>
       </c>
       <c r="M314" s="16">
-        <f t="shared" si="13"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="315" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H315" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I315" s="16">
@@ -10935,13 +10525,12 @@
         <v>9</v>
       </c>
       <c r="M315" s="16">
-        <f t="shared" si="13"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="316" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H316" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I316" s="16">
@@ -10957,13 +10546,12 @@
         <v>9</v>
       </c>
       <c r="M316" s="16">
-        <f t="shared" si="13"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="317" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H317" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I317" s="16">
@@ -10979,13 +10567,12 @@
         <v>9</v>
       </c>
       <c r="M317" s="16">
-        <f t="shared" si="13"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="318" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H318" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I318" s="16">
@@ -11001,13 +10588,12 @@
         <v>9</v>
       </c>
       <c r="M318" s="16">
-        <f t="shared" si="13"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="319" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H319" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I319" s="16">
@@ -11023,13 +10609,12 @@
         <v>15</v>
       </c>
       <c r="M319" s="16">
-        <f t="shared" si="13"/>
         <v>6.7543227665706022E-4</v>
       </c>
     </row>
     <row r="320" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H320" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I320" s="16">
@@ -11045,13 +10630,12 @@
         <v>15</v>
       </c>
       <c r="M320" s="16">
-        <f t="shared" si="13"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="321" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H321" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I321" s="16">
@@ -11067,13 +10651,12 @@
         <v>15</v>
       </c>
       <c r="M321" s="16">
-        <f t="shared" si="13"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="322" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H322" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I322" s="16">
@@ -11089,13 +10672,12 @@
         <v>15</v>
       </c>
       <c r="M322" s="16">
-        <f t="shared" si="13"/>
         <v>3.3771613832853055E-4</v>
       </c>
     </row>
     <row r="323" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H323" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I323" s="16">
@@ -11111,13 +10693,12 @@
         <v>17</v>
       </c>
       <c r="M323" s="16">
-        <f t="shared" si="13"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="324" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H324" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I324" s="16">
@@ -11133,13 +10714,12 @@
         <v>17</v>
       </c>
       <c r="M324" s="16">
-        <f t="shared" si="13"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="325" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H325" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I325" s="16">
@@ -11155,13 +10735,12 @@
         <v>17</v>
       </c>
       <c r="M325" s="16">
-        <f t="shared" si="13"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="326" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H326" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I326" s="16">
@@ -11177,13 +10756,12 @@
         <v>17</v>
       </c>
       <c r="M326" s="16">
-        <f t="shared" si="13"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="327" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H327" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I327" s="16">
@@ -11199,13 +10777,12 @@
         <v>9</v>
       </c>
       <c r="M327" s="16">
-        <f t="shared" si="13"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="328" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H328" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I328" s="16">
@@ -11221,13 +10798,12 @@
         <v>9</v>
       </c>
       <c r="M328" s="16">
-        <f t="shared" si="13"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="329" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H329" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I329" s="16">
@@ -11243,13 +10819,12 @@
         <v>9</v>
       </c>
       <c r="M329" s="16">
-        <f t="shared" si="13"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="330" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H330" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I330" s="16">
@@ -11265,13 +10840,12 @@
         <v>9</v>
       </c>
       <c r="M330" s="16">
-        <f t="shared" si="13"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="331" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H331" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I331" s="16">
@@ -11287,13 +10861,12 @@
         <v>15</v>
       </c>
       <c r="M331" s="16">
-        <f t="shared" si="13"/>
         <v>3.3771613832853011E-4</v>
       </c>
     </row>
     <row r="332" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H332" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I332" s="16">
@@ -11309,13 +10882,12 @@
         <v>15</v>
       </c>
       <c r="M332" s="16">
-        <f t="shared" si="13"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="333" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H333" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I333" s="16">
@@ -11331,13 +10903,12 @@
         <v>15</v>
       </c>
       <c r="M333" s="16">
-        <f t="shared" si="13"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="334" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H334" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I334" s="16">
@@ -11353,13 +10924,12 @@
         <v>15</v>
       </c>
       <c r="M334" s="16">
-        <f t="shared" si="13"/>
         <v>1.6885806916426527E-4</v>
       </c>
     </row>
     <row r="335" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H335" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I335" s="16">
@@ -11375,13 +10945,12 @@
         <v>17</v>
       </c>
       <c r="M335" s="16">
-        <f t="shared" si="13"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="336" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H336" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I336" s="16">
@@ -11397,13 +10966,12 @@
         <v>17</v>
       </c>
       <c r="M336" s="16">
-        <f t="shared" si="13"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="337" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H337" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I337" s="16">
@@ -11419,13 +10987,12 @@
         <v>17</v>
       </c>
       <c r="M337" s="16">
-        <f t="shared" si="13"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="338" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H338" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I338" s="16">
@@ -11441,13 +11008,12 @@
         <v>17</v>
       </c>
       <c r="M338" s="16">
-        <f t="shared" si="13"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="339" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H339" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I339" s="16">
@@ -11463,13 +11029,12 @@
         <v>9</v>
       </c>
       <c r="M339" s="16">
-        <f t="shared" si="13"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="340" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H340" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I340" s="16">
@@ -11485,13 +11050,12 @@
         <v>9</v>
       </c>
       <c r="M340" s="16">
-        <f t="shared" si="13"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="341" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H341" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I341" s="16">
@@ -11507,13 +11071,12 @@
         <v>9</v>
       </c>
       <c r="M341" s="16">
-        <f t="shared" si="13"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="342" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H342" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I342" s="16">
@@ -11529,13 +11092,12 @@
         <v>9</v>
       </c>
       <c r="M342" s="16">
-        <f t="shared" si="13"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="343" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H343" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I343" s="16">
@@ -11551,13 +11113,12 @@
         <v>15</v>
       </c>
       <c r="M343" s="16">
-        <f t="shared" si="13"/>
         <v>1.6885806916426506E-4</v>
       </c>
     </row>
     <row r="344" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H344" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I344" s="16">
@@ -11573,13 +11134,12 @@
         <v>15</v>
       </c>
       <c r="M344" s="16">
-        <f t="shared" si="13"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="345" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H345" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I345" s="16">
@@ -11595,13 +11155,12 @@
         <v>15</v>
       </c>
       <c r="M345" s="16">
-        <f t="shared" si="13"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="346" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H346" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I346" s="16">
@@ -11617,13 +11176,12 @@
         <v>15</v>
       </c>
       <c r="M346" s="16">
-        <f t="shared" si="13"/>
         <v>8.4429034582132636E-5</v>
       </c>
     </row>
     <row r="347" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H347" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I347" s="16">
@@ -11639,13 +11197,12 @@
         <v>17</v>
       </c>
       <c r="M347" s="16">
-        <f t="shared" si="13"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="348" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H348" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I348" s="16">
@@ -11661,13 +11218,12 @@
         <v>17</v>
       </c>
       <c r="M348" s="16">
-        <f t="shared" si="13"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="349" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H349" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I349" s="16">
@@ -11683,13 +11239,12 @@
         <v>17</v>
       </c>
       <c r="M349" s="16">
-        <f t="shared" si="13"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="350" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H350" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I350" s="16">
@@ -11705,13 +11260,12 @@
         <v>17</v>
       </c>
       <c r="M350" s="16">
-        <f t="shared" si="13"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="351" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H351" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I351" s="16">
@@ -11727,13 +11281,12 @@
         <v>9</v>
       </c>
       <c r="M351" s="16">
-        <f t="shared" si="13"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="352" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H352" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I352" s="16">
@@ -11749,13 +11302,12 @@
         <v>9</v>
       </c>
       <c r="M352" s="16">
-        <f t="shared" si="13"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="353" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H353" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I353" s="16">
@@ -11771,13 +11323,12 @@
         <v>9</v>
       </c>
       <c r="M353" s="16">
-        <f t="shared" si="13"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="354" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H354" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I354" s="16">
@@ -11793,13 +11344,12 @@
         <v>9</v>
       </c>
       <c r="M354" s="16">
-        <f t="shared" si="13"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="355" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H355" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I355" s="16">
@@ -11815,13 +11365,12 @@
         <v>15</v>
       </c>
       <c r="M355" s="16">
-        <f t="shared" si="13"/>
         <v>8.4429034582132528E-5</v>
       </c>
     </row>
     <row r="356" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H356" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I356" s="16">
@@ -11837,13 +11386,12 @@
         <v>15</v>
       </c>
       <c r="M356" s="16">
-        <f t="shared" si="13"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="357" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H357" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I357" s="16">
@@ -11859,13 +11407,12 @@
         <v>15</v>
       </c>
       <c r="M357" s="16">
-        <f t="shared" si="13"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="358" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H358" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I358" s="16">
@@ -11881,13 +11428,12 @@
         <v>15</v>
       </c>
       <c r="M358" s="16">
-        <f t="shared" si="13"/>
         <v>4.2214517291066318E-5</v>
       </c>
     </row>
     <row r="359" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H359" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I359" s="16">
@@ -11903,13 +11449,12 @@
         <v>17</v>
       </c>
       <c r="M359" s="16">
-        <f t="shared" si="13"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="360" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H360" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I360" s="16">
@@ -11925,13 +11470,12 @@
         <v>17</v>
       </c>
       <c r="M360" s="16">
-        <f t="shared" si="13"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="361" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H361" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I361" s="16">
@@ -11947,13 +11491,12 @@
         <v>17</v>
       </c>
       <c r="M361" s="16">
-        <f t="shared" si="13"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="362" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H362" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I362" s="16">
@@ -11969,7 +11512,6 @@
         <v>17</v>
       </c>
       <c r="M362" s="16">
-        <f t="shared" si="13"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
@@ -11991,13 +11533,12 @@
         <v>9</v>
       </c>
       <c r="M363" s="16">
-        <f>M303*0.5</f>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="364" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H364" s="15">
-        <f t="shared" ref="H364:H422" si="14">H304+1</f>
+        <f t="shared" ref="H364:H422" si="6">H304+1</f>
         <v>7</v>
       </c>
       <c r="I364" s="16">
@@ -12013,13 +11554,12 @@
         <v>9</v>
       </c>
       <c r="M364" s="16">
-        <f t="shared" ref="M364:M422" si="15">M304*0.5</f>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="365" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H365" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I365" s="16">
@@ -12035,13 +11575,12 @@
         <v>9</v>
       </c>
       <c r="M365" s="16">
-        <f t="shared" si="15"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="366" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H366" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I366" s="16">
@@ -12057,13 +11596,12 @@
         <v>9</v>
       </c>
       <c r="M366" s="16">
-        <f t="shared" si="15"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="367" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H367" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I367" s="16">
@@ -12079,13 +11617,12 @@
         <v>15</v>
       </c>
       <c r="M367" s="16">
-        <f t="shared" si="15"/>
         <v>6.7543227665706022E-4</v>
       </c>
     </row>
     <row r="368" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H368" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I368" s="16">
@@ -12101,13 +11638,12 @@
         <v>15</v>
       </c>
       <c r="M368" s="16">
-        <f t="shared" si="15"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="369" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H369" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I369" s="16">
@@ -12123,13 +11659,12 @@
         <v>15</v>
       </c>
       <c r="M369" s="16">
-        <f t="shared" si="15"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="370" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H370" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I370" s="16">
@@ -12145,13 +11680,12 @@
         <v>15</v>
       </c>
       <c r="M370" s="16">
-        <f t="shared" si="15"/>
         <v>3.3771613832853055E-4</v>
       </c>
     </row>
     <row r="371" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H371" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I371" s="16">
@@ -12167,13 +11701,12 @@
         <v>17</v>
       </c>
       <c r="M371" s="16">
-        <f t="shared" si="15"/>
         <v>8.1051873198847262E-3</v>
       </c>
     </row>
     <row r="372" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H372" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I372" s="16">
@@ -12189,13 +11722,12 @@
         <v>17</v>
       </c>
       <c r="M372" s="16">
-        <f t="shared" si="15"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="373" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H373" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I373" s="16">
@@ -12211,13 +11743,12 @@
         <v>17</v>
       </c>
       <c r="M373" s="16">
-        <f t="shared" si="15"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="374" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H374" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I374" s="16">
@@ -12233,13 +11764,12 @@
         <v>17</v>
       </c>
       <c r="M374" s="16">
-        <f t="shared" si="15"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="375" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H375" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I375" s="16">
@@ -12255,13 +11785,12 @@
         <v>9</v>
       </c>
       <c r="M375" s="16">
-        <f t="shared" si="15"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="376" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H376" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I376" s="16">
@@ -12277,13 +11806,12 @@
         <v>9</v>
       </c>
       <c r="M376" s="16">
-        <f t="shared" si="15"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="377" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H377" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I377" s="16">
@@ -12299,13 +11827,12 @@
         <v>9</v>
       </c>
       <c r="M377" s="16">
-        <f t="shared" si="15"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="378" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H378" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I378" s="16">
@@ -12321,13 +11848,12 @@
         <v>9</v>
       </c>
       <c r="M378" s="16">
-        <f t="shared" si="15"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="379" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H379" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I379" s="16">
@@ -12343,13 +11869,12 @@
         <v>15</v>
       </c>
       <c r="M379" s="16">
-        <f t="shared" si="15"/>
         <v>3.3771613832853011E-4</v>
       </c>
     </row>
     <row r="380" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H380" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I380" s="16">
@@ -12365,13 +11890,12 @@
         <v>15</v>
       </c>
       <c r="M380" s="16">
-        <f t="shared" si="15"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="381" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H381" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I381" s="16">
@@ -12387,13 +11911,12 @@
         <v>15</v>
       </c>
       <c r="M381" s="16">
-        <f t="shared" si="15"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="382" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H382" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I382" s="16">
@@ -12409,13 +11932,12 @@
         <v>15</v>
       </c>
       <c r="M382" s="16">
-        <f t="shared" si="15"/>
         <v>1.6885806916426527E-4</v>
       </c>
     </row>
     <row r="383" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H383" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I383" s="16">
@@ -12431,13 +11953,12 @@
         <v>17</v>
       </c>
       <c r="M383" s="16">
-        <f t="shared" si="15"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="384" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H384" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I384" s="16">
@@ -12453,13 +11974,12 @@
         <v>17</v>
       </c>
       <c r="M384" s="16">
-        <f t="shared" si="15"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="385" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H385" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I385" s="16">
@@ -12475,13 +11995,12 @@
         <v>17</v>
       </c>
       <c r="M385" s="16">
-        <f t="shared" si="15"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="386" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H386" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I386" s="16">
@@ -12497,13 +12016,12 @@
         <v>17</v>
       </c>
       <c r="M386" s="16">
-        <f t="shared" si="15"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="387" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H387" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I387" s="16">
@@ -12519,13 +12037,12 @@
         <v>9</v>
       </c>
       <c r="M387" s="16">
-        <f t="shared" si="15"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="388" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H388" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I388" s="16">
@@ -12541,13 +12058,12 @@
         <v>9</v>
       </c>
       <c r="M388" s="16">
-        <f t="shared" si="15"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="389" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H389" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I389" s="16">
@@ -12563,13 +12079,12 @@
         <v>9</v>
       </c>
       <c r="M389" s="16">
-        <f t="shared" si="15"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="390" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H390" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I390" s="16">
@@ -12585,13 +12100,12 @@
         <v>9</v>
       </c>
       <c r="M390" s="16">
-        <f t="shared" si="15"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="391" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H391" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I391" s="16">
@@ -12607,13 +12121,12 @@
         <v>15</v>
       </c>
       <c r="M391" s="16">
-        <f t="shared" si="15"/>
         <v>1.6885806916426506E-4</v>
       </c>
     </row>
     <row r="392" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H392" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I392" s="16">
@@ -12629,13 +12142,12 @@
         <v>15</v>
       </c>
       <c r="M392" s="16">
-        <f t="shared" si="15"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="393" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H393" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I393" s="16">
@@ -12651,13 +12163,12 @@
         <v>15</v>
       </c>
       <c r="M393" s="16">
-        <f t="shared" si="15"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="394" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H394" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I394" s="16">
@@ -12673,13 +12184,12 @@
         <v>15</v>
       </c>
       <c r="M394" s="16">
-        <f t="shared" si="15"/>
         <v>8.4429034582132636E-5</v>
       </c>
     </row>
     <row r="395" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H395" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I395" s="16">
@@ -12695,13 +12205,12 @@
         <v>17</v>
       </c>
       <c r="M395" s="16">
-        <f t="shared" si="15"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="396" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H396" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I396" s="16">
@@ -12717,13 +12226,12 @@
         <v>17</v>
       </c>
       <c r="M396" s="16">
-        <f t="shared" si="15"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="397" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H397" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I397" s="16">
@@ -12739,13 +12247,12 @@
         <v>17</v>
       </c>
       <c r="M397" s="16">
-        <f t="shared" si="15"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="398" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H398" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I398" s="16">
@@ -12761,13 +12268,12 @@
         <v>17</v>
       </c>
       <c r="M398" s="16">
-        <f t="shared" si="15"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="399" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H399" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I399" s="16">
@@ -12783,13 +12289,12 @@
         <v>9</v>
       </c>
       <c r="M399" s="16">
-        <f t="shared" si="15"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="400" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H400" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I400" s="16">
@@ -12805,13 +12310,12 @@
         <v>9</v>
       </c>
       <c r="M400" s="16">
-        <f t="shared" si="15"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="401" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H401" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I401" s="16">
@@ -12827,13 +12331,12 @@
         <v>9</v>
       </c>
       <c r="M401" s="16">
-        <f t="shared" si="15"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="402" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H402" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I402" s="16">
@@ -12849,13 +12352,12 @@
         <v>9</v>
       </c>
       <c r="M402" s="16">
-        <f t="shared" si="15"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="403" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H403" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I403" s="16">
@@ -12871,13 +12373,12 @@
         <v>15</v>
       </c>
       <c r="M403" s="16">
-        <f t="shared" si="15"/>
         <v>8.4429034582132528E-5</v>
       </c>
     </row>
     <row r="404" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H404" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I404" s="16">
@@ -12893,13 +12394,12 @@
         <v>15</v>
       </c>
       <c r="M404" s="16">
-        <f t="shared" si="15"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="405" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H405" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I405" s="16">
@@ -12915,13 +12415,12 @@
         <v>15</v>
       </c>
       <c r="M405" s="16">
-        <f t="shared" si="15"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="406" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H406" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I406" s="16">
@@ -12937,13 +12436,12 @@
         <v>15</v>
       </c>
       <c r="M406" s="16">
-        <f t="shared" si="15"/>
         <v>4.2214517291066318E-5</v>
       </c>
     </row>
     <row r="407" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H407" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I407" s="16">
@@ -12959,13 +12457,12 @@
         <v>17</v>
       </c>
       <c r="M407" s="16">
-        <f t="shared" si="15"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="408" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H408" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I408" s="16">
@@ -12981,13 +12478,12 @@
         <v>17</v>
       </c>
       <c r="M408" s="16">
-        <f t="shared" si="15"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="409" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H409" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I409" s="16">
@@ -13003,13 +12499,12 @@
         <v>17</v>
       </c>
       <c r="M409" s="16">
-        <f t="shared" si="15"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="410" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H410" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I410" s="16">
@@ -13025,13 +12520,12 @@
         <v>17</v>
       </c>
       <c r="M410" s="16">
-        <f t="shared" si="15"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="411" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H411" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I411" s="16">
@@ -13047,13 +12541,12 @@
         <v>9</v>
       </c>
       <c r="M411" s="16">
-        <f t="shared" si="15"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="412" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H412" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I412" s="16">
@@ -13069,13 +12562,12 @@
         <v>9</v>
       </c>
       <c r="M412" s="16">
-        <f t="shared" si="15"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="413" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H413" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I413" s="16">
@@ -13091,13 +12583,12 @@
         <v>9</v>
       </c>
       <c r="M413" s="16">
-        <f t="shared" si="15"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="414" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H414" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I414" s="16">
@@ -13113,13 +12604,12 @@
         <v>9</v>
       </c>
       <c r="M414" s="16">
-        <f t="shared" si="15"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="415" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H415" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I415" s="16">
@@ -13135,13 +12625,12 @@
         <v>15</v>
       </c>
       <c r="M415" s="16">
-        <f t="shared" si="15"/>
         <v>4.2214517291066264E-5</v>
       </c>
     </row>
     <row r="416" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H416" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I416" s="16">
@@ -13157,13 +12646,12 @@
         <v>15</v>
       </c>
       <c r="M416" s="16">
-        <f t="shared" si="15"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="417" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H417" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I417" s="16">
@@ -13179,13 +12667,12 @@
         <v>15</v>
       </c>
       <c r="M417" s="16">
-        <f t="shared" si="15"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="418" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H418" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I418" s="16">
@@ -13201,13 +12688,12 @@
         <v>15</v>
       </c>
       <c r="M418" s="16">
-        <f t="shared" si="15"/>
         <v>2.1107258645533159E-5</v>
       </c>
     </row>
     <row r="419" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H419" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I419" s="16">
@@ -13223,13 +12709,12 @@
         <v>17</v>
       </c>
       <c r="M419" s="16">
-        <f t="shared" si="15"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="420" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H420" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I420" s="16">
@@ -13245,13 +12730,12 @@
         <v>17</v>
       </c>
       <c r="M420" s="16">
-        <f t="shared" si="15"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="421" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H421" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I421" s="16">
@@ -13267,13 +12751,12 @@
         <v>17</v>
       </c>
       <c r="M421" s="16">
-        <f t="shared" si="15"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="422" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H422" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I422" s="16">
@@ -13289,7 +12772,6 @@
         <v>17</v>
       </c>
       <c r="M422" s="16">
-        <f t="shared" si="15"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
@@ -13311,13 +12793,12 @@
         <v>9</v>
       </c>
       <c r="M423" s="16">
-        <f>M363*0.5</f>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="424" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H424" s="15">
-        <f t="shared" ref="H424:H482" si="16">H364+1</f>
+        <f t="shared" ref="H424:H482" si="7">H364+1</f>
         <v>8</v>
       </c>
       <c r="I424" s="16">
@@ -13333,13 +12814,12 @@
         <v>9</v>
       </c>
       <c r="M424" s="16">
-        <f t="shared" ref="M424:M482" si="17">M364*0.5</f>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="425" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H425" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I425" s="16">
@@ -13355,13 +12835,12 @@
         <v>9</v>
       </c>
       <c r="M425" s="16">
-        <f t="shared" si="17"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="426" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H426" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I426" s="16">
@@ -13377,13 +12856,12 @@
         <v>9</v>
       </c>
       <c r="M426" s="16">
-        <f t="shared" si="17"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="427" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H427" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I427" s="16">
@@ -13399,13 +12877,12 @@
         <v>15</v>
       </c>
       <c r="M427" s="16">
-        <f t="shared" si="17"/>
         <v>3.3771613832853011E-4</v>
       </c>
     </row>
     <row r="428" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H428" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I428" s="16">
@@ -13421,13 +12898,12 @@
         <v>15</v>
       </c>
       <c r="M428" s="16">
-        <f t="shared" si="17"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="429" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H429" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I429" s="16">
@@ -13443,13 +12919,12 @@
         <v>15</v>
       </c>
       <c r="M429" s="16">
-        <f t="shared" si="17"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="430" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H430" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I430" s="16">
@@ -13465,13 +12940,12 @@
         <v>15</v>
       </c>
       <c r="M430" s="16">
-        <f t="shared" si="17"/>
         <v>1.6885806916426527E-4</v>
       </c>
     </row>
     <row r="431" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H431" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I431" s="16">
@@ -13487,13 +12961,12 @@
         <v>17</v>
       </c>
       <c r="M431" s="16">
-        <f t="shared" si="17"/>
         <v>4.0525936599423631E-3</v>
       </c>
     </row>
     <row r="432" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H432" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I432" s="16">
@@ -13509,13 +12982,12 @@
         <v>17</v>
       </c>
       <c r="M432" s="16">
-        <f t="shared" si="17"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="433" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H433" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I433" s="16">
@@ -13531,13 +13003,12 @@
         <v>17</v>
       </c>
       <c r="M433" s="16">
-        <f t="shared" si="17"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="434" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H434" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I434" s="16">
@@ -13553,13 +13024,12 @@
         <v>17</v>
       </c>
       <c r="M434" s="16">
-        <f t="shared" si="17"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="435" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H435" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I435" s="16">
@@ -13575,13 +13045,12 @@
         <v>9</v>
       </c>
       <c r="M435" s="16">
-        <f t="shared" si="17"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="436" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H436" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I436" s="16">
@@ -13597,13 +13066,12 @@
         <v>9</v>
       </c>
       <c r="M436" s="16">
-        <f t="shared" si="17"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="437" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H437" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I437" s="16">
@@ -13619,13 +13087,12 @@
         <v>9</v>
       </c>
       <c r="M437" s="16">
-        <f t="shared" si="17"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="438" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H438" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I438" s="16">
@@ -13641,13 +13108,12 @@
         <v>9</v>
       </c>
       <c r="M438" s="16">
-        <f t="shared" si="17"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="439" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H439" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I439" s="16">
@@ -13663,13 +13129,12 @@
         <v>15</v>
       </c>
       <c r="M439" s="16">
-        <f t="shared" si="17"/>
         <v>1.6885806916426506E-4</v>
       </c>
     </row>
     <row r="440" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H440" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I440" s="16">
@@ -13685,13 +13150,12 @@
         <v>15</v>
       </c>
       <c r="M440" s="16">
-        <f t="shared" si="17"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="441" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H441" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I441" s="16">
@@ -13707,13 +13171,12 @@
         <v>15</v>
       </c>
       <c r="M441" s="16">
-        <f t="shared" si="17"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="442" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H442" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I442" s="16">
@@ -13729,13 +13192,12 @@
         <v>15</v>
       </c>
       <c r="M442" s="16">
-        <f t="shared" si="17"/>
         <v>8.4429034582132636E-5</v>
       </c>
     </row>
     <row r="443" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H443" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I443" s="16">
@@ -13751,13 +13213,12 @@
         <v>17</v>
       </c>
       <c r="M443" s="16">
-        <f t="shared" si="17"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="444" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H444" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I444" s="16">
@@ -13773,13 +13234,12 @@
         <v>17</v>
       </c>
       <c r="M444" s="16">
-        <f t="shared" si="17"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="445" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H445" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I445" s="16">
@@ -13795,13 +13255,12 @@
         <v>17</v>
       </c>
       <c r="M445" s="16">
-        <f t="shared" si="17"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="446" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H446" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I446" s="16">
@@ -13817,13 +13276,12 @@
         <v>17</v>
       </c>
       <c r="M446" s="16">
-        <f t="shared" si="17"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="447" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H447" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I447" s="16">
@@ -13839,13 +13297,12 @@
         <v>9</v>
       </c>
       <c r="M447" s="16">
-        <f t="shared" si="17"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="448" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H448" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I448" s="16">
@@ -13861,13 +13318,12 @@
         <v>9</v>
       </c>
       <c r="M448" s="16">
-        <f t="shared" si="17"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="449" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H449" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I449" s="16">
@@ -13883,13 +13339,12 @@
         <v>9</v>
       </c>
       <c r="M449" s="16">
-        <f t="shared" si="17"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="450" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H450" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I450" s="16">
@@ -13905,13 +13360,12 @@
         <v>9</v>
       </c>
       <c r="M450" s="16">
-        <f t="shared" si="17"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="451" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H451" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I451" s="16">
@@ -13927,13 +13381,12 @@
         <v>15</v>
       </c>
       <c r="M451" s="16">
-        <f t="shared" si="17"/>
         <v>8.4429034582132528E-5</v>
       </c>
     </row>
     <row r="452" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H452" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I452" s="16">
@@ -13949,13 +13402,12 @@
         <v>15</v>
       </c>
       <c r="M452" s="16">
-        <f t="shared" si="17"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="453" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H453" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I453" s="16">
@@ -13971,13 +13423,12 @@
         <v>15</v>
       </c>
       <c r="M453" s="16">
-        <f t="shared" si="17"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="454" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H454" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I454" s="16">
@@ -13993,13 +13444,12 @@
         <v>15</v>
       </c>
       <c r="M454" s="16">
-        <f t="shared" si="17"/>
         <v>4.2214517291066318E-5</v>
       </c>
     </row>
     <row r="455" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H455" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I455" s="16">
@@ -14015,13 +13465,12 @@
         <v>17</v>
       </c>
       <c r="M455" s="16">
-        <f t="shared" si="17"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="456" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H456" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I456" s="16">
@@ -14037,13 +13486,12 @@
         <v>17</v>
       </c>
       <c r="M456" s="16">
-        <f t="shared" si="17"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="457" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H457" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I457" s="16">
@@ -14059,13 +13507,12 @@
         <v>17</v>
       </c>
       <c r="M457" s="16">
-        <f t="shared" si="17"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="458" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H458" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I458" s="16">
@@ -14081,13 +13528,12 @@
         <v>17</v>
       </c>
       <c r="M458" s="16">
-        <f t="shared" si="17"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="459" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H459" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I459" s="16">
@@ -14103,13 +13549,12 @@
         <v>9</v>
       </c>
       <c r="M459" s="16">
-        <f t="shared" si="17"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="460" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H460" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I460" s="16">
@@ -14125,13 +13570,12 @@
         <v>9</v>
       </c>
       <c r="M460" s="16">
-        <f t="shared" si="17"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="461" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H461" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I461" s="16">
@@ -14147,13 +13591,12 @@
         <v>9</v>
       </c>
       <c r="M461" s="16">
-        <f t="shared" si="17"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="462" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H462" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I462" s="16">
@@ -14169,13 +13612,12 @@
         <v>9</v>
       </c>
       <c r="M462" s="16">
-        <f t="shared" si="17"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="463" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H463" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I463" s="16">
@@ -14191,13 +13633,12 @@
         <v>15</v>
       </c>
       <c r="M463" s="16">
-        <f t="shared" si="17"/>
         <v>4.2214517291066264E-5</v>
       </c>
     </row>
     <row r="464" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H464" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I464" s="16">
@@ -14213,13 +13654,12 @@
         <v>15</v>
       </c>
       <c r="M464" s="16">
-        <f t="shared" si="17"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="465" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H465" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I465" s="16">
@@ -14235,13 +13675,12 @@
         <v>15</v>
       </c>
       <c r="M465" s="16">
-        <f t="shared" si="17"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="466" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H466" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I466" s="16">
@@ -14257,13 +13696,12 @@
         <v>15</v>
       </c>
       <c r="M466" s="16">
-        <f t="shared" si="17"/>
         <v>2.1107258645533159E-5</v>
       </c>
     </row>
     <row r="467" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H467" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I467" s="16">
@@ -14279,13 +13717,12 @@
         <v>17</v>
       </c>
       <c r="M467" s="16">
-        <f t="shared" si="17"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="468" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H468" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I468" s="16">
@@ -14301,13 +13738,12 @@
         <v>17</v>
       </c>
       <c r="M468" s="16">
-        <f t="shared" si="17"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="469" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H469" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I469" s="16">
@@ -14323,13 +13759,12 @@
         <v>17</v>
       </c>
       <c r="M469" s="16">
-        <f t="shared" si="17"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="470" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H470" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I470" s="16">
@@ -14345,13 +13780,12 @@
         <v>17</v>
       </c>
       <c r="M470" s="16">
-        <f t="shared" si="17"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="471" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H471" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I471" s="16">
@@ -14367,13 +13801,12 @@
         <v>9</v>
       </c>
       <c r="M471" s="16">
-        <f t="shared" si="17"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="472" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H472" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I472" s="16">
@@ -14389,13 +13822,12 @@
         <v>9</v>
       </c>
       <c r="M472" s="16">
-        <f t="shared" si="17"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="473" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H473" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I473" s="16">
@@ -14411,13 +13843,12 @@
         <v>9</v>
       </c>
       <c r="M473" s="16">
-        <f t="shared" si="17"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="474" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H474" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I474" s="16">
@@ -14433,13 +13864,12 @@
         <v>9</v>
       </c>
       <c r="M474" s="16">
-        <f t="shared" si="17"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="475" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H475" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I475" s="16">
@@ -14455,13 +13885,12 @@
         <v>15</v>
       </c>
       <c r="M475" s="16">
-        <f t="shared" si="17"/>
         <v>2.1107258645533132E-5</v>
       </c>
     </row>
     <row r="476" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H476" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I476" s="16">
@@ -14477,13 +13906,12 @@
         <v>15</v>
       </c>
       <c r="M476" s="16">
-        <f t="shared" si="17"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
     <row r="477" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H477" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I477" s="16">
@@ -14499,13 +13927,12 @@
         <v>15</v>
       </c>
       <c r="M477" s="16">
-        <f t="shared" si="17"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
     <row r="478" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H478" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I478" s="16">
@@ -14521,13 +13948,12 @@
         <v>15</v>
       </c>
       <c r="M478" s="16">
-        <f t="shared" si="17"/>
         <v>1.055362932276658E-5</v>
       </c>
     </row>
     <row r="479" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H479" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I479" s="16">
@@ -14543,13 +13969,12 @@
         <v>17</v>
       </c>
       <c r="M479" s="16">
-        <f t="shared" si="17"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="480" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H480" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I480" s="16">
@@ -14565,13 +13990,12 @@
         <v>17</v>
       </c>
       <c r="M480" s="16">
-        <f t="shared" si="17"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="481" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H481" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I481" s="16">
@@ -14587,13 +14011,12 @@
         <v>17</v>
       </c>
       <c r="M481" s="16">
-        <f t="shared" si="17"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="482" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H482" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I482" s="16">
@@ -14609,7 +14032,6 @@
         <v>17</v>
       </c>
       <c r="M482" s="16">
-        <f t="shared" si="17"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
@@ -14631,13 +14053,12 @@
         <v>9</v>
       </c>
       <c r="M483" s="16">
-        <f>M423*0.5</f>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="484" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H484" s="15">
-        <f t="shared" ref="H484:H542" si="18">H424+1</f>
+        <f t="shared" ref="H484:H542" si="8">H424+1</f>
         <v>9</v>
       </c>
       <c r="I484" s="16">
@@ -14653,13 +14074,12 @@
         <v>9</v>
       </c>
       <c r="M484" s="16">
-        <f t="shared" ref="M484:M542" si="19">M424*0.5</f>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="485" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H485" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I485" s="16">
@@ -14675,13 +14095,12 @@
         <v>9</v>
       </c>
       <c r="M485" s="16">
-        <f t="shared" si="19"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="486" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H486" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I486" s="16">
@@ -14697,13 +14116,12 @@
         <v>9</v>
       </c>
       <c r="M486" s="16">
-        <f t="shared" si="19"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="487" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H487" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I487" s="16">
@@ -14719,13 +14137,12 @@
         <v>15</v>
       </c>
       <c r="M487" s="16">
-        <f t="shared" si="19"/>
         <v>1.6885806916426506E-4</v>
       </c>
     </row>
     <row r="488" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H488" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I488" s="16">
@@ -14741,13 +14158,12 @@
         <v>15</v>
       </c>
       <c r="M488" s="16">
-        <f t="shared" si="19"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="489" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H489" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I489" s="16">
@@ -14763,13 +14179,12 @@
         <v>15</v>
       </c>
       <c r="M489" s="16">
-        <f t="shared" si="19"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="490" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H490" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I490" s="16">
@@ -14785,13 +14200,12 @@
         <v>15</v>
       </c>
       <c r="M490" s="16">
-        <f t="shared" si="19"/>
         <v>8.4429034582132636E-5</v>
       </c>
     </row>
     <row r="491" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H491" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I491" s="16">
@@ -14807,13 +14221,12 @@
         <v>17</v>
       </c>
       <c r="M491" s="16">
-        <f t="shared" si="19"/>
         <v>2.0262968299711815E-3</v>
       </c>
     </row>
     <row r="492" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H492" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I492" s="16">
@@ -14829,13 +14242,12 @@
         <v>17</v>
       </c>
       <c r="M492" s="16">
-        <f t="shared" si="19"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="493" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H493" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I493" s="16">
@@ -14851,13 +14263,12 @@
         <v>17</v>
       </c>
       <c r="M493" s="16">
-        <f t="shared" si="19"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="494" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H494" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I494" s="16">
@@ -14873,13 +14284,12 @@
         <v>17</v>
       </c>
       <c r="M494" s="16">
-        <f t="shared" si="19"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="495" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H495" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I495" s="16">
@@ -14895,13 +14305,12 @@
         <v>9</v>
       </c>
       <c r="M495" s="16">
-        <f t="shared" si="19"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="496" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H496" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I496" s="16">
@@ -14917,13 +14326,12 @@
         <v>9</v>
       </c>
       <c r="M496" s="16">
-        <f t="shared" si="19"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="497" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H497" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I497" s="16">
@@ -14939,13 +14347,12 @@
         <v>9</v>
       </c>
       <c r="M497" s="16">
-        <f t="shared" si="19"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="498" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H498" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I498" s="16">
@@ -14961,13 +14368,12 @@
         <v>9</v>
       </c>
       <c r="M498" s="16">
-        <f t="shared" si="19"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="499" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H499" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I499" s="16">
@@ -14983,13 +14389,12 @@
         <v>15</v>
       </c>
       <c r="M499" s="16">
-        <f t="shared" si="19"/>
         <v>8.4429034582132528E-5</v>
       </c>
     </row>
     <row r="500" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H500" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I500" s="16">
@@ -15005,13 +14410,12 @@
         <v>15</v>
       </c>
       <c r="M500" s="16">
-        <f t="shared" si="19"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="501" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H501" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I501" s="16">
@@ -15027,13 +14431,12 @@
         <v>15</v>
       </c>
       <c r="M501" s="16">
-        <f t="shared" si="19"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="502" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H502" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I502" s="16">
@@ -15049,13 +14452,12 @@
         <v>15</v>
       </c>
       <c r="M502" s="16">
-        <f t="shared" si="19"/>
         <v>4.2214517291066318E-5</v>
       </c>
     </row>
     <row r="503" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H503" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I503" s="16">
@@ -15071,13 +14473,12 @@
         <v>17</v>
       </c>
       <c r="M503" s="16">
-        <f t="shared" si="19"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="504" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H504" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I504" s="16">
@@ -15093,13 +14494,12 @@
         <v>17</v>
       </c>
       <c r="M504" s="16">
-        <f t="shared" si="19"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="505" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H505" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I505" s="16">
@@ -15115,13 +14515,12 @@
         <v>17</v>
       </c>
       <c r="M505" s="16">
-        <f t="shared" si="19"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="506" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H506" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I506" s="16">
@@ -15137,13 +14536,12 @@
         <v>17</v>
       </c>
       <c r="M506" s="16">
-        <f t="shared" si="19"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="507" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H507" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I507" s="16">
@@ -15159,13 +14557,12 @@
         <v>9</v>
       </c>
       <c r="M507" s="16">
-        <f t="shared" si="19"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="508" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H508" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I508" s="16">
@@ -15181,13 +14578,12 @@
         <v>9</v>
       </c>
       <c r="M508" s="16">
-        <f t="shared" si="19"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="509" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H509" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I509" s="16">
@@ -15203,13 +14599,12 @@
         <v>9</v>
       </c>
       <c r="M509" s="16">
-        <f t="shared" si="19"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="510" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H510" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I510" s="16">
@@ -15225,13 +14620,12 @@
         <v>9</v>
       </c>
       <c r="M510" s="16">
-        <f t="shared" si="19"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="511" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H511" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I511" s="16">
@@ -15247,13 +14641,12 @@
         <v>15</v>
       </c>
       <c r="M511" s="16">
-        <f t="shared" si="19"/>
         <v>4.2214517291066264E-5</v>
       </c>
     </row>
     <row r="512" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H512" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I512" s="16">
@@ -15269,13 +14662,12 @@
         <v>15</v>
       </c>
       <c r="M512" s="16">
-        <f t="shared" si="19"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="513" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H513" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I513" s="16">
@@ -15291,13 +14683,12 @@
         <v>15</v>
       </c>
       <c r="M513" s="16">
-        <f t="shared" si="19"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="514" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H514" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I514" s="16">
@@ -15313,13 +14704,12 @@
         <v>15</v>
       </c>
       <c r="M514" s="16">
-        <f t="shared" si="19"/>
         <v>2.1107258645533159E-5</v>
       </c>
     </row>
     <row r="515" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H515" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I515" s="16">
@@ -15335,13 +14725,12 @@
         <v>17</v>
       </c>
       <c r="M515" s="16">
-        <f t="shared" si="19"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="516" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H516" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I516" s="16">
@@ -15357,13 +14746,12 @@
         <v>17</v>
       </c>
       <c r="M516" s="16">
-        <f t="shared" si="19"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="517" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H517" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I517" s="16">
@@ -15379,13 +14767,12 @@
         <v>17</v>
       </c>
       <c r="M517" s="16">
-        <f t="shared" si="19"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="518" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H518" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I518" s="16">
@@ -15401,13 +14788,12 @@
         <v>17</v>
       </c>
       <c r="M518" s="16">
-        <f t="shared" si="19"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="519" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H519" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I519" s="16">
@@ -15423,13 +14809,12 @@
         <v>9</v>
       </c>
       <c r="M519" s="16">
-        <f t="shared" si="19"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="520" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H520" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I520" s="16">
@@ -15445,13 +14830,12 @@
         <v>9</v>
       </c>
       <c r="M520" s="16">
-        <f t="shared" si="19"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="521" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H521" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I521" s="16">
@@ -15467,13 +14851,12 @@
         <v>9</v>
       </c>
       <c r="M521" s="16">
-        <f t="shared" si="19"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="522" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H522" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I522" s="16">
@@ -15489,13 +14872,12 @@
         <v>9</v>
       </c>
       <c r="M522" s="16">
-        <f t="shared" si="19"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="523" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H523" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I523" s="16">
@@ -15511,13 +14893,12 @@
         <v>15</v>
       </c>
       <c r="M523" s="16">
-        <f t="shared" si="19"/>
         <v>2.1107258645533132E-5</v>
       </c>
     </row>
     <row r="524" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H524" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I524" s="16">
@@ -15533,13 +14914,12 @@
         <v>15</v>
       </c>
       <c r="M524" s="16">
-        <f t="shared" si="19"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
     <row r="525" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H525" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I525" s="16">
@@ -15555,13 +14935,12 @@
         <v>15</v>
       </c>
       <c r="M525" s="16">
-        <f t="shared" si="19"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
     <row r="526" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H526" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I526" s="16">
@@ -15577,13 +14956,12 @@
         <v>15</v>
       </c>
       <c r="M526" s="16">
-        <f t="shared" si="19"/>
         <v>1.055362932276658E-5</v>
       </c>
     </row>
     <row r="527" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H527" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I527" s="16">
@@ -15599,13 +14977,12 @@
         <v>17</v>
       </c>
       <c r="M527" s="16">
-        <f t="shared" si="19"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="528" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H528" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I528" s="16">
@@ -15621,13 +14998,12 @@
         <v>17</v>
       </c>
       <c r="M528" s="16">
-        <f t="shared" si="19"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="529" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H529" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I529" s="16">
@@ -15643,13 +15019,12 @@
         <v>17</v>
       </c>
       <c r="M529" s="16">
-        <f t="shared" si="19"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="530" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H530" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I530" s="16">
@@ -15665,13 +15040,12 @@
         <v>17</v>
       </c>
       <c r="M530" s="16">
-        <f t="shared" si="19"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="531" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H531" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I531" s="16">
@@ -15687,13 +15061,12 @@
         <v>9</v>
       </c>
       <c r="M531" s="16">
-        <f t="shared" si="19"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="532" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H532" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I532" s="16">
@@ -15709,13 +15082,12 @@
         <v>9</v>
       </c>
       <c r="M532" s="16">
-        <f t="shared" si="19"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="533" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H533" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I533" s="16">
@@ -15731,13 +15103,12 @@
         <v>9</v>
       </c>
       <c r="M533" s="16">
-        <f t="shared" si="19"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="534" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H534" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I534" s="16">
@@ -15753,13 +15124,12 @@
         <v>9</v>
       </c>
       <c r="M534" s="16">
-        <f t="shared" si="19"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
     <row r="535" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H535" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I535" s="16">
@@ -15775,13 +15145,12 @@
         <v>15</v>
       </c>
       <c r="M535" s="16">
-        <f t="shared" si="19"/>
         <v>1.0553629322766566E-5</v>
       </c>
     </row>
     <row r="536" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H536" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I536" s="16">
@@ -15797,13 +15166,12 @@
         <v>15</v>
       </c>
       <c r="M536" s="16">
-        <f t="shared" si="19"/>
         <v>7.9152219920749279E-6</v>
       </c>
     </row>
     <row r="537" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H537" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I537" s="16">
@@ -15819,13 +15187,12 @@
         <v>15</v>
       </c>
       <c r="M537" s="16">
-        <f t="shared" si="19"/>
         <v>7.9152219920749279E-6</v>
       </c>
     </row>
     <row r="538" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H538" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I538" s="16">
@@ -15841,13 +15208,12 @@
         <v>15</v>
       </c>
       <c r="M538" s="16">
-        <f t="shared" si="19"/>
         <v>5.2768146613832898E-6</v>
       </c>
     </row>
     <row r="539" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H539" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I539" s="16">
@@ -15863,13 +15229,12 @@
         <v>17</v>
       </c>
       <c r="M539" s="16">
-        <f t="shared" si="19"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="540" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H540" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I540" s="16">
@@ -15885,13 +15250,12 @@
         <v>17</v>
       </c>
       <c r="M540" s="16">
-        <f t="shared" si="19"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="541" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H541" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I541" s="16">
@@ -15907,13 +15271,12 @@
         <v>17</v>
       </c>
       <c r="M541" s="16">
-        <f t="shared" si="19"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="542" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H542" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I542" s="16">
@@ -15929,7 +15292,6 @@
         <v>17</v>
       </c>
       <c r="M542" s="16">
-        <f t="shared" si="19"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
@@ -15951,13 +15313,12 @@
         <v>9</v>
       </c>
       <c r="M543" s="16">
-        <f>M483*0.5</f>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="544" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H544" s="15">
-        <f t="shared" ref="H544:H602" si="20">H484+1</f>
+        <f t="shared" ref="H544:H602" si="9">H484+1</f>
         <v>10</v>
       </c>
       <c r="I544" s="16">
@@ -15973,13 +15334,12 @@
         <v>9</v>
       </c>
       <c r="M544" s="16">
-        <f t="shared" ref="M544:M602" si="21">M484*0.5</f>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="545" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H545" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I545" s="16">
@@ -15995,13 +15355,12 @@
         <v>9</v>
       </c>
       <c r="M545" s="16">
-        <f t="shared" si="21"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="546" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H546" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I546" s="16">
@@ -16017,13 +15376,12 @@
         <v>9</v>
       </c>
       <c r="M546" s="16">
-        <f t="shared" si="21"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="547" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H547" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I547" s="16">
@@ -16039,13 +15397,12 @@
         <v>15</v>
       </c>
       <c r="M547" s="16">
-        <f t="shared" si="21"/>
         <v>8.4429034582132528E-5</v>
       </c>
     </row>
     <row r="548" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H548" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I548" s="16">
@@ -16061,13 +15418,12 @@
         <v>15</v>
       </c>
       <c r="M548" s="16">
-        <f t="shared" si="21"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="549" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H549" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I549" s="16">
@@ -16083,13 +15439,12 @@
         <v>15</v>
       </c>
       <c r="M549" s="16">
-        <f t="shared" si="21"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="550" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H550" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I550" s="16">
@@ -16105,13 +15460,12 @@
         <v>15</v>
       </c>
       <c r="M550" s="16">
-        <f t="shared" si="21"/>
         <v>4.2214517291066318E-5</v>
       </c>
     </row>
     <row r="551" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H551" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I551" s="16">
@@ -16127,13 +15481,12 @@
         <v>17</v>
       </c>
       <c r="M551" s="16">
-        <f t="shared" si="21"/>
         <v>1.0131484149855908E-3</v>
       </c>
     </row>
     <row r="552" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H552" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I552" s="16">
@@ -16149,13 +15502,12 @@
         <v>17</v>
       </c>
       <c r="M552" s="16">
-        <f t="shared" si="21"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="553" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H553" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I553" s="16">
@@ -16171,13 +15523,12 @@
         <v>17</v>
       </c>
       <c r="M553" s="16">
-        <f t="shared" si="21"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="554" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H554" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I554" s="16">
@@ -16193,13 +15544,12 @@
         <v>17</v>
       </c>
       <c r="M554" s="16">
-        <f t="shared" si="21"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="555" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H555" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I555" s="16">
@@ -16215,13 +15565,12 @@
         <v>9</v>
       </c>
       <c r="M555" s="16">
-        <f t="shared" si="21"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="556" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H556" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I556" s="16">
@@ -16237,13 +15586,12 @@
         <v>9</v>
       </c>
       <c r="M556" s="16">
-        <f t="shared" si="21"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="557" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H557" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I557" s="16">
@@ -16259,13 +15607,12 @@
         <v>9</v>
       </c>
       <c r="M557" s="16">
-        <f t="shared" si="21"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="558" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H558" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I558" s="16">
@@ -16281,13 +15628,12 @@
         <v>9</v>
       </c>
       <c r="M558" s="16">
-        <f t="shared" si="21"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="559" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H559" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I559" s="16">
@@ -16303,13 +15649,12 @@
         <v>15</v>
       </c>
       <c r="M559" s="16">
-        <f t="shared" si="21"/>
         <v>4.2214517291066264E-5</v>
       </c>
     </row>
     <row r="560" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H560" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I560" s="16">
@@ -16325,13 +15670,12 @@
         <v>15</v>
       </c>
       <c r="M560" s="16">
-        <f t="shared" si="21"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="561" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H561" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I561" s="16">
@@ -16347,13 +15691,12 @@
         <v>15</v>
       </c>
       <c r="M561" s="16">
-        <f t="shared" si="21"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="562" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H562" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I562" s="16">
@@ -16369,13 +15712,12 @@
         <v>15</v>
       </c>
       <c r="M562" s="16">
-        <f t="shared" si="21"/>
         <v>2.1107258645533159E-5</v>
       </c>
     </row>
     <row r="563" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H563" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I563" s="16">
@@ -16391,13 +15733,12 @@
         <v>17</v>
       </c>
       <c r="M563" s="16">
-        <f t="shared" si="21"/>
         <v>5.0657420749279538E-4</v>
       </c>
     </row>
     <row r="564" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H564" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I564" s="16">
@@ -16413,13 +15754,12 @@
         <v>17</v>
       </c>
       <c r="M564" s="16">
-        <f t="shared" si="21"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="565" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H565" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I565" s="16">
@@ -16435,13 +15775,12 @@
         <v>17</v>
       </c>
       <c r="M565" s="16">
-        <f t="shared" si="21"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="566" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H566" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I566" s="16">
@@ -16457,13 +15796,12 @@
         <v>17</v>
       </c>
       <c r="M566" s="16">
-        <f t="shared" si="21"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="567" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H567" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I567" s="16">
@@ -16479,13 +15817,12 @@
         <v>9</v>
       </c>
       <c r="M567" s="16">
-        <f t="shared" si="21"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="568" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H568" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I568" s="16">
@@ -16501,13 +15838,12 @@
         <v>9</v>
       </c>
       <c r="M568" s="16">
-        <f t="shared" si="21"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="569" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H569" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I569" s="16">
@@ -16523,13 +15859,12 @@
         <v>9</v>
       </c>
       <c r="M569" s="16">
-        <f t="shared" si="21"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="570" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H570" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I570" s="16">
@@ -16545,13 +15880,12 @@
         <v>9</v>
       </c>
       <c r="M570" s="16">
-        <f t="shared" si="21"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="571" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H571" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I571" s="16">
@@ -16567,13 +15901,12 @@
         <v>15</v>
       </c>
       <c r="M571" s="16">
-        <f t="shared" si="21"/>
         <v>2.1107258645533132E-5</v>
       </c>
     </row>
     <row r="572" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H572" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I572" s="16">
@@ -16589,13 +15922,12 @@
         <v>15</v>
       </c>
       <c r="M572" s="16">
-        <f t="shared" si="21"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
     <row r="573" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H573" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I573" s="16">
@@ -16611,13 +15943,12 @@
         <v>15</v>
       </c>
       <c r="M573" s="16">
-        <f t="shared" si="21"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
     <row r="574" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H574" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I574" s="16">
@@ -16633,13 +15964,12 @@
         <v>15</v>
       </c>
       <c r="M574" s="16">
-        <f t="shared" si="21"/>
         <v>1.055362932276658E-5</v>
       </c>
     </row>
     <row r="575" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H575" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I575" s="16">
@@ -16655,13 +15985,12 @@
         <v>17</v>
       </c>
       <c r="M575" s="16">
-        <f t="shared" si="21"/>
         <v>2.5328710374639769E-4</v>
       </c>
     </row>
     <row r="576" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H576" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I576" s="16">
@@ -16677,13 +16006,12 @@
         <v>17</v>
       </c>
       <c r="M576" s="16">
-        <f t="shared" si="21"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="577" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H577" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I577" s="16">
@@ -16699,13 +16027,12 @@
         <v>17</v>
       </c>
       <c r="M577" s="16">
-        <f t="shared" si="21"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="578" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H578" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I578" s="16">
@@ -16721,13 +16048,12 @@
         <v>17</v>
       </c>
       <c r="M578" s="16">
-        <f t="shared" si="21"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="579" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H579" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I579" s="16">
@@ -16743,13 +16069,12 @@
         <v>9</v>
       </c>
       <c r="M579" s="16">
-        <f t="shared" si="21"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="580" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H580" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I580" s="16">
@@ -16765,13 +16090,12 @@
         <v>9</v>
       </c>
       <c r="M580" s="16">
-        <f t="shared" si="21"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="581" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H581" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I581" s="16">
@@ -16787,13 +16111,12 @@
         <v>9</v>
       </c>
       <c r="M581" s="16">
-        <f t="shared" si="21"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="582" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H582" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I582" s="16">
@@ -16809,13 +16132,12 @@
         <v>9</v>
       </c>
       <c r="M582" s="16">
-        <f t="shared" si="21"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
     <row r="583" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H583" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I583" s="16">
@@ -16831,13 +16153,12 @@
         <v>15</v>
       </c>
       <c r="M583" s="16">
-        <f t="shared" si="21"/>
         <v>1.0553629322766566E-5</v>
       </c>
     </row>
     <row r="584" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H584" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I584" s="16">
@@ -16853,13 +16174,12 @@
         <v>15</v>
       </c>
       <c r="M584" s="16">
-        <f t="shared" si="21"/>
         <v>7.9152219920749279E-6</v>
       </c>
     </row>
     <row r="585" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H585" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I585" s="16">
@@ -16875,13 +16195,12 @@
         <v>15</v>
       </c>
       <c r="M585" s="16">
-        <f t="shared" si="21"/>
         <v>7.9152219920749279E-6</v>
       </c>
     </row>
     <row r="586" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H586" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I586" s="16">
@@ -16897,13 +16216,12 @@
         <v>15</v>
       </c>
       <c r="M586" s="16">
-        <f t="shared" si="21"/>
         <v>5.2768146613832898E-6</v>
       </c>
     </row>
     <row r="587" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H587" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I587" s="16">
@@ -16919,13 +16237,12 @@
         <v>17</v>
       </c>
       <c r="M587" s="16">
-        <f t="shared" si="21"/>
         <v>1.2664355187319885E-4</v>
       </c>
     </row>
     <row r="588" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H588" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I588" s="16">
@@ -16941,13 +16258,12 @@
         <v>17</v>
       </c>
       <c r="M588" s="16">
-        <f t="shared" si="21"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="589" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H589" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I589" s="16">
@@ -16963,13 +16279,12 @@
         <v>17</v>
       </c>
       <c r="M589" s="16">
-        <f t="shared" si="21"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="590" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H590" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I590" s="16">
@@ -16985,13 +16300,12 @@
         <v>17</v>
       </c>
       <c r="M590" s="16">
-        <f t="shared" si="21"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
     <row r="591" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H591" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I591" s="16">
@@ -17007,13 +16321,12 @@
         <v>9</v>
       </c>
       <c r="M591" s="16">
-        <f t="shared" si="21"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="592" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H592" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I592" s="16">
@@ -17029,13 +16342,12 @@
         <v>9</v>
       </c>
       <c r="M592" s="16">
-        <f t="shared" si="21"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
     <row r="593" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H593" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I593" s="16">
@@ -17051,13 +16363,12 @@
         <v>9</v>
       </c>
       <c r="M593" s="16">
-        <f t="shared" si="21"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="594" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H594" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I594" s="16">
@@ -17073,13 +16384,12 @@
         <v>9</v>
       </c>
       <c r="M594" s="16">
-        <f t="shared" si="21"/>
         <v>7.9152219920749279E-6</v>
       </c>
     </row>
     <row r="595" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H595" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I595" s="16">
@@ -17095,13 +16405,12 @@
         <v>15</v>
       </c>
       <c r="M595" s="16">
-        <f t="shared" si="21"/>
         <v>5.276814661383283E-6</v>
       </c>
     </row>
     <row r="596" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H596" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I596" s="16">
@@ -17117,13 +16426,12 @@
         <v>15</v>
       </c>
       <c r="M596" s="16">
-        <f t="shared" si="21"/>
         <v>3.9576109960374639E-6</v>
       </c>
     </row>
     <row r="597" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H597" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I597" s="16">
@@ -17139,13 +16447,12 @@
         <v>15</v>
       </c>
       <c r="M597" s="16">
-        <f t="shared" si="21"/>
         <v>3.9576109960374639E-6</v>
       </c>
     </row>
     <row r="598" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H598" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I598" s="16">
@@ -17161,13 +16468,12 @@
         <v>15</v>
       </c>
       <c r="M598" s="16">
-        <f t="shared" si="21"/>
         <v>2.6384073306916449E-6</v>
       </c>
     </row>
     <row r="599" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H599" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I599" s="16">
@@ -17183,13 +16489,12 @@
         <v>17</v>
       </c>
       <c r="M599" s="16">
-        <f t="shared" si="21"/>
         <v>6.3321775936599423E-5</v>
       </c>
     </row>
     <row r="600" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H600" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I600" s="16">
@@ -17205,13 +16510,12 @@
         <v>17</v>
       </c>
       <c r="M600" s="16">
-        <f t="shared" si="21"/>
         <v>1.5830443984149856E-5</v>
       </c>
     </row>
     <row r="601" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H601" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I601" s="16">
@@ -17227,13 +16531,12 @@
         <v>17</v>
       </c>
       <c r="M601" s="16">
-        <f t="shared" si="21"/>
         <v>3.1660887968299712E-5</v>
       </c>
     </row>
     <row r="602" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H602" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I602" s="16">
@@ -17249,7 +16552,6 @@
         <v>17</v>
       </c>
       <c r="M602" s="16">
-        <f t="shared" si="21"/>
         <v>7.9152219920749279E-6</v>
       </c>
     </row>
